--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -418,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415194</v>
+        <v>0.8446980928415198</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218354</v>
+        <v>0.8673127765218358</v>
       </c>
       <c r="F2">
-        <v>0.842837346592314</v>
+        <v>0.8428373465923142</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159844</v>
+        <v>0.8727760211159846</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060158</v>
+        <v>0.8809928084060161</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034902</v>
+        <v>0.8570284852034903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,16 +447,16 @@
         <v>0.8709823293449028</v>
       </c>
       <c r="E3">
-        <v>0.890539865344693</v>
+        <v>0.8905398653446929</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498003</v>
+        <v>0.8703525555498005</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483304</v>
+        <v>0.8957362804483303</v>
       </c>
       <c r="L3">
         <v>0.9027955453800266</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700514</v>
+        <v>0.8860266201700506</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506888</v>
+        <v>0.9038597758506877</v>
       </c>
       <c r="F4">
-        <v>0.8861141476671871</v>
+        <v>0.8861141476671863</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168891</v>
+        <v>0.9088752316168881</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260924</v>
+        <v>0.9152759999260914</v>
       </c>
       <c r="M4">
-        <v>0.897813768446615</v>
+        <v>0.8978137684466144</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +496,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.891983092249968</v>
+        <v>0.8919830922499681</v>
       </c>
       <c r="E5">
-        <v>0.9091379062199659</v>
+        <v>0.909137906219966</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579682</v>
+        <v>0.8923577305579683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550353</v>
+        <v>0.9140758628550354</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703236</v>
+        <v>0.9202164980703238</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902254</v>
+        <v>0.9036931107902253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +522,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483869</v>
+        <v>0.8929638605483837</v>
       </c>
       <c r="E6">
-        <v>0.910007201668117</v>
+        <v>0.9100072016681137</v>
       </c>
       <c r="F6">
-        <v>0.893385957427982</v>
+        <v>0.8933859574279785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.914932073649642</v>
+        <v>0.9149320736496389</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922449</v>
+        <v>0.9210299021922419</v>
       </c>
       <c r="M6">
-        <v>0.9046612044698846</v>
+        <v>0.9046612044698814</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +548,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149507</v>
+        <v>0.8861075521149516</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177824</v>
+        <v>0.9039314752177833</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198618</v>
+        <v>0.8861989681198627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939405</v>
+        <v>0.9089459004939412</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799718</v>
+        <v>0.9153431323799726</v>
       </c>
       <c r="M7">
-        <v>0.8978936506158602</v>
+        <v>0.897893650615861</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +574,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356798</v>
+        <v>0.8540644850356777</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197744</v>
+        <v>0.8755826530197722</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712068</v>
+        <v>0.8526395991712044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764966</v>
+        <v>0.8809578940764945</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586197</v>
+        <v>0.8887609827586178</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234986</v>
+        <v>0.8662704311234959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +600,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E9">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F9">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E10">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F10">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +652,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E11">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F11">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +678,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E12">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F12">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +704,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E13">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F13">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +730,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E14">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F14">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +756,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E15">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F15">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,25 +782,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999624</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E16">
-        <v>0.8042209864951232</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F16">
-        <v>0.7677173668597198</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542791</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329028</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588146</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -808,25 +808,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6893125022740824</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E17">
-        <v>0.7318709522245536</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F17">
-        <v>0.680289328146961</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7376349492306379</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L17">
-        <v>0.7530715716077886</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M17">
-        <v>0.7038348044256589</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -834,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.716059733960944</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E18">
-        <v>0.7548811289312334</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F18">
-        <v>0.708301966306208</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7607593411781003</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L18">
-        <v>0.7748888066726292</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M18">
-        <v>0.7301892721222397</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -860,25 +860,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7230113137316551</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E19">
-        <v>0.7608867409476504</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F19">
-        <v>0.7155773642393291</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7667822948850337</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L19">
-        <v>0.7805774379121787</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M19">
-        <v>0.7370395253296059</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -886,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E20">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F20">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L20">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M20">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -912,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E21">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F21">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L21">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M21">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -938,25 +938,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E22">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F22">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L22">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M22">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -964,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E23">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F23">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L23">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M23">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -990,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E24">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F24">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L24">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M24">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1016,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6822524540348976</v>
+        <v>0.7728644609999606</v>
       </c>
       <c r="E25">
-        <v>0.7258249221919124</v>
+        <v>0.8042209864951213</v>
       </c>
       <c r="F25">
-        <v>0.6728888690843364</v>
+        <v>0.7677173668597178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7315456462904182</v>
+        <v>0.8101023285542772</v>
       </c>
       <c r="L25">
-        <v>0.7473331850967004</v>
+        <v>0.8215565010329007</v>
       </c>
       <c r="M25">
-        <v>0.6968789562617308</v>
+        <v>0.7861787064588128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -418,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415198</v>
+        <v>0.8446980928415194</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218358</v>
+        <v>0.8673127765218354</v>
       </c>
       <c r="F2">
-        <v>0.8428373465923142</v>
+        <v>0.842837346592314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159846</v>
+        <v>0.8727760211159844</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060161</v>
+        <v>0.8809928084060158</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034903</v>
+        <v>0.8570284852034902</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -447,16 +447,16 @@
         <v>0.8709823293449028</v>
       </c>
       <c r="E3">
-        <v>0.8905398653446929</v>
+        <v>0.890539865344693</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498005</v>
+        <v>0.8703525555498003</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483303</v>
+        <v>0.8957362804483304</v>
       </c>
       <c r="L3">
         <v>0.9027955453800266</v>
@@ -470,25 +470,25 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700506</v>
+        <v>0.8860266201700514</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506877</v>
+        <v>0.9038597758506888</v>
       </c>
       <c r="F4">
-        <v>0.8861141476671863</v>
+        <v>0.8861141476671871</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168881</v>
+        <v>0.9088752316168891</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260914</v>
+        <v>0.9152759999260924</v>
       </c>
       <c r="M4">
-        <v>0.8978137684466144</v>
+        <v>0.897813768446615</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +496,25 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8919830922499681</v>
+        <v>0.891983092249968</v>
       </c>
       <c r="E5">
-        <v>0.909137906219966</v>
+        <v>0.9091379062199659</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579683</v>
+        <v>0.8923577305579682</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550354</v>
+        <v>0.9140758628550353</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703238</v>
+        <v>0.9202164980703236</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902253</v>
+        <v>0.9036931107902254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +522,25 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483837</v>
+        <v>0.8929638605483869</v>
       </c>
       <c r="E6">
-        <v>0.9100072016681137</v>
+        <v>0.910007201668117</v>
       </c>
       <c r="F6">
-        <v>0.8933859574279785</v>
+        <v>0.893385957427982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9149320736496389</v>
+        <v>0.914932073649642</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922419</v>
+        <v>0.9210299021922449</v>
       </c>
       <c r="M6">
-        <v>0.9046612044698814</v>
+        <v>0.9046612044698846</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +548,25 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149516</v>
+        <v>0.8861075521149507</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177833</v>
+        <v>0.9039314752177824</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198627</v>
+        <v>0.8861989681198618</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939412</v>
+        <v>0.9089459004939405</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799726</v>
+        <v>0.9153431323799718</v>
       </c>
       <c r="M7">
-        <v>0.897893650615861</v>
+        <v>0.8978936506158602</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +574,25 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356777</v>
+        <v>0.8540644850356798</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197722</v>
+        <v>0.8755826530197744</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712044</v>
+        <v>0.8526395991712068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764945</v>
+        <v>0.8809578940764966</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586178</v>
+        <v>0.8887609827586197</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234959</v>
+        <v>0.8662704311234986</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +600,25 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E9">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F9">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +626,25 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E10">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F10">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +652,25 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E11">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F11">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +678,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E12">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F12">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +704,25 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E13">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F13">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +730,25 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E14">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F14">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +756,25 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E15">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F15">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,25 +782,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999606</v>
+        <v>0.7728644609999624</v>
       </c>
       <c r="E16">
-        <v>0.8042209864951213</v>
+        <v>0.8042209864951232</v>
       </c>
       <c r="F16">
-        <v>0.7677173668597178</v>
+        <v>0.7677173668597198</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542772</v>
+        <v>0.8101023285542791</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329007</v>
+        <v>0.8215565010329028</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588128</v>
+        <v>0.7861787064588146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -808,25 +808,25 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7728644609999606</v>
+        <v>0.6893125022740824</v>
       </c>
       <c r="E17">
-        <v>0.8042209864951213</v>
+        <v>0.7318709522245536</v>
       </c>
       <c r="F17">
-        <v>0.7677173668597178</v>
+        <v>0.680289328146961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8101023285542772</v>
+        <v>0.7376349492306379</v>
       </c>
       <c r="L17">
-        <v>0.8215565010329007</v>
+        <v>0.7530715716077886</v>
       </c>
       <c r="M17">
-        <v>0.7861787064588128</v>
+        <v>0.7038348044256589</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -834,25 +834,25 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7728644609999606</v>
+        <v>0.716059733960944</v>
       </c>
       <c r="E18">
-        <v>0.8042209864951213</v>
+        <v>0.7548811289312334</v>
       </c>
       <c r="F18">
-        <v>0.7677173668597178</v>
+        <v>0.708301966306208</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8101023285542772</v>
+        <v>0.7607593411781003</v>
       </c>
       <c r="L18">
-        <v>0.8215565010329007</v>
+        <v>0.7748888066726292</v>
       </c>
       <c r="M18">
-        <v>0.7861787064588128</v>
+        <v>0.7301892721222397</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -860,25 +860,25 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7728644609999606</v>
+        <v>0.7230113137316551</v>
       </c>
       <c r="E19">
-        <v>0.8042209864951213</v>
+        <v>0.7608867409476504</v>
       </c>
       <c r="F19">
-        <v>0.7677173668597178</v>
+        <v>0.7155773642393291</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8101023285542772</v>
+        <v>0.7667822948850337</v>
       </c>
       <c r="L19">
-        <v>0.8215565010329007</v>
+        <v>0.7805774379121787</v>
       </c>
       <c r="M19">
-        <v>0.7861787064588128</v>
+        <v>0.7370395253296059</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -886,25 +886,25 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E20">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F20">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L20">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M20">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -912,25 +912,25 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E21">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F21">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L21">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M21">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -938,25 +938,25 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E22">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F22">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L22">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M22">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -964,25 +964,25 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E23">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F23">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L23">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M23">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -990,25 +990,25 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E24">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F24">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L24">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M24">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1016,25 +1016,25 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7728644609999606</v>
+        <v>0.6822524540348976</v>
       </c>
       <c r="E25">
-        <v>0.8042209864951213</v>
+        <v>0.7258249221919124</v>
       </c>
       <c r="F25">
-        <v>0.7677173668597178</v>
+        <v>0.6728888690843364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8101023285542772</v>
+        <v>0.7315456462904182</v>
       </c>
       <c r="L25">
-        <v>0.8215565010329007</v>
+        <v>0.7473331850967004</v>
       </c>
       <c r="M25">
-        <v>0.7861787064588128</v>
+        <v>0.6968789562617308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -418,25 +418,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8446980928415194</v>
+        <v>0.8451009948924481</v>
       </c>
       <c r="E2">
-        <v>0.8673127765218354</v>
+        <v>0.8676742749529168</v>
       </c>
       <c r="F2">
-        <v>0.842837346592314</v>
+        <v>0.843239265337369</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8727760211159844</v>
+        <v>0.8731595466578816</v>
       </c>
       <c r="L2">
-        <v>0.8809928084060158</v>
+        <v>0.8813470421867333</v>
       </c>
       <c r="M2">
-        <v>0.8570284852034902</v>
+        <v>0.8574216927871817</v>
+      </c>
+      <c r="N2">
+        <v>0.90996058180272</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -444,25 +447,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8709823293449028</v>
+        <v>0.8712956475411766</v>
       </c>
       <c r="E3">
-        <v>0.890539865344693</v>
+        <v>0.8908218879591231</v>
       </c>
       <c r="F3">
-        <v>0.8703525555498003</v>
+        <v>0.8706637736693016</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8957362804483304</v>
+        <v>0.8960370665047208</v>
       </c>
       <c r="L3">
-        <v>0.9027955453800266</v>
+        <v>0.9030727248445576</v>
       </c>
       <c r="M3">
-        <v>0.8829655222976431</v>
+        <v>0.8832710686555727</v>
+      </c>
+      <c r="N3">
+        <v>0.9265255462160308</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -470,25 +476,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8860266201700514</v>
+        <v>0.8862957980377889</v>
       </c>
       <c r="E4">
-        <v>0.9038597758506888</v>
+        <v>0.9041024426668303</v>
       </c>
       <c r="F4">
-        <v>0.8861141476671871</v>
+        <v>0.8863809050141901</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9088752316168891</v>
+        <v>0.9091348054089227</v>
       </c>
       <c r="L4">
-        <v>0.9152759999260924</v>
+        <v>0.9155148899199995</v>
       </c>
       <c r="M4">
-        <v>0.897813768446615</v>
+        <v>0.8980761577099413</v>
+      </c>
+      <c r="N4">
+        <v>0.9360091246305798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -496,25 +505,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.891983092249968</v>
+        <v>0.892235951358199</v>
       </c>
       <c r="E5">
-        <v>0.9091379062199659</v>
+        <v>0.9093659901276253</v>
       </c>
       <c r="F5">
-        <v>0.8923577305579682</v>
+        <v>0.8926080939284607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9140758628550353</v>
+        <v>0.9143201174651235</v>
       </c>
       <c r="L5">
-        <v>0.9202164980703236</v>
+        <v>0.9204411746430526</v>
       </c>
       <c r="M5">
-        <v>0.9036931107902254</v>
+        <v>0.9039395520933263</v>
+      </c>
+      <c r="N5">
+        <v>0.9397625182128189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -522,25 +534,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8929638605483869</v>
+        <v>0.8932140899616782</v>
       </c>
       <c r="E6">
-        <v>0.910007201668117</v>
+        <v>0.9102329339587737</v>
       </c>
       <c r="F6">
-        <v>0.893385957427982</v>
+        <v>0.893633681280631</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.914932073649642</v>
+        <v>0.9151738552646171</v>
       </c>
       <c r="L6">
-        <v>0.9210299021922449</v>
+        <v>0.9212522853574262</v>
       </c>
       <c r="M6">
-        <v>0.9046612044698846</v>
+        <v>0.9049050762349654</v>
+      </c>
+      <c r="N6">
+        <v>0.9403804080988148</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -548,25 +563,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8861075521149507</v>
+        <v>0.8863765041359365</v>
       </c>
       <c r="E7">
-        <v>0.9039314752177824</v>
+        <v>0.9041739403315677</v>
       </c>
       <c r="F7">
-        <v>0.8861989681198618</v>
+        <v>0.8864654984140545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9089459004939405</v>
+        <v>0.9092052625882677</v>
       </c>
       <c r="L7">
-        <v>0.9153431323799718</v>
+        <v>0.9155818258804245</v>
       </c>
       <c r="M7">
-        <v>0.8978936506158602</v>
+        <v>0.8981558191355383</v>
+      </c>
+      <c r="N7">
+        <v>0.9360601306993034</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -574,25 +592,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8540644850356798</v>
+        <v>0.8544333654737136</v>
       </c>
       <c r="E8">
-        <v>0.8755826530197744</v>
+        <v>0.8759140301688765</v>
       </c>
       <c r="F8">
-        <v>0.8526395991712068</v>
+        <v>0.8530070042871775</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8809578940764966</v>
+        <v>0.8813101289351123</v>
       </c>
       <c r="L8">
-        <v>0.8887609827586197</v>
+        <v>0.8890860513228438</v>
       </c>
       <c r="M8">
-        <v>0.8662704311234986</v>
+        <v>0.8666303371018709</v>
+      </c>
+      <c r="N8">
+        <v>0.915861361178696</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -600,25 +621,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E9">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F9">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L9">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M9">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N9">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -626,25 +650,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E10">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F10">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L10">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M10">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N10">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -652,25 +679,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E11">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F11">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L11">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M11">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N11">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -678,25 +708,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E12">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F12">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L12">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M12">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N12">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -704,25 +737,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E13">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F13">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L13">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M13">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N13">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -730,25 +766,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E14">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F14">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L14">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M14">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N14">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -756,25 +795,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E15">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F15">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L15">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M15">
-        <v>0.7861787064588146</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N15">
+        <v>0.8649580651212709</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -782,259 +824,289 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7728644609999624</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E16">
-        <v>0.8042209864951232</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F16">
-        <v>0.7677173668597198</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8101023285542791</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L16">
-        <v>0.8215565010329028</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M16">
-        <v>0.7861787064588146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N16">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6893125022740824</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E17">
-        <v>0.7318709522245536</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F17">
-        <v>0.680289328146961</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.7376349492306379</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L17">
-        <v>0.7530715716077886</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M17">
-        <v>0.7038348044256589</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N17">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.716059733960944</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E18">
-        <v>0.7548811289312334</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F18">
-        <v>0.708301966306208</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.7607593411781003</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L18">
-        <v>0.7748888066726292</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M18">
-        <v>0.7301892721222397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N18">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7230113137316551</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E19">
-        <v>0.7608867409476504</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F19">
-        <v>0.7155773642393291</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.7667822948850337</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L19">
-        <v>0.7805774379121787</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M19">
-        <v>0.7370395253296059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N19">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E20">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F20">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L20">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M20">
-        <v>0.6968789562617308</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N20">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E21">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F21">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L21">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M21">
-        <v>0.6968789562617308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N21">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E22">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F22">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L22">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M22">
-        <v>0.6968789562617308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N22">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E23">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F23">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L23">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M23">
-        <v>0.6968789562617308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N23">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E24">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F24">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L24">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M24">
-        <v>0.6968789562617308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N24">
+        <v>0.8649580651212709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6822524540348976</v>
+        <v>0.7736644378268708</v>
       </c>
       <c r="E25">
-        <v>0.7258249221919124</v>
+        <v>0.8049295728018134</v>
       </c>
       <c r="F25">
-        <v>0.6728888690843364</v>
+        <v>0.7685264270151606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.7315456462904182</v>
+        <v>0.8108428176494712</v>
       </c>
       <c r="L25">
-        <v>0.7473331850967004</v>
+        <v>0.8222446159660476</v>
       </c>
       <c r="M25">
-        <v>0.6968789562617308</v>
+        <v>0.7869612022564345</v>
+      </c>
+      <c r="N25">
+        <v>0.8649580651212709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -417,696 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8451009948924481</v>
+        <v>0.9873136025985029</v>
+      </c>
+      <c r="D2">
+        <v>1.039782692078344</v>
       </c>
       <c r="E2">
-        <v>0.8676742749529168</v>
+        <v>1.006294955813112</v>
       </c>
       <c r="F2">
-        <v>0.843239265337369</v>
+        <v>1.026060101376636</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.056711925909173</v>
+      </c>
       <c r="J2">
-        <v>0.8731595466578816</v>
+        <v>1.009880497858593</v>
+      </c>
+      <c r="K2">
+        <v>1.050714275840722</v>
       </c>
       <c r="L2">
-        <v>0.8813470421867333</v>
+        <v>1.017667283044667</v>
       </c>
       <c r="M2">
-        <v>0.8574216927871817</v>
+        <v>1.037167934444696</v>
       </c>
       <c r="N2">
-        <v>0.90996058180272</v>
+        <v>1.011314644000465</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8712956475411766</v>
+        <v>1.002702968017687</v>
+      </c>
+      <c r="D3">
+        <v>1.047882022046342</v>
       </c>
       <c r="E3">
-        <v>0.8908218879591231</v>
+        <v>1.019191428901563</v>
       </c>
       <c r="F3">
-        <v>0.8706637736693016</v>
+        <v>1.037690611658091</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.060342699988996</v>
+      </c>
       <c r="J3">
-        <v>0.8960370665047208</v>
+        <v>1.023120217635862</v>
+      </c>
+      <c r="K3">
+        <v>1.057936816749685</v>
       </c>
       <c r="L3">
-        <v>0.9030727248445576</v>
+        <v>1.02958450220038</v>
       </c>
       <c r="M3">
-        <v>0.8832710686555727</v>
+        <v>1.047862919201855</v>
       </c>
       <c r="N3">
-        <v>0.9265255462160308</v>
+        <v>1.024573165698435</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8862957980377889</v>
+        <v>1.012119152322581</v>
+      </c>
+      <c r="D4">
+        <v>1.052853675205</v>
       </c>
       <c r="E4">
-        <v>0.9041024426668303</v>
+        <v>1.027090126602321</v>
       </c>
       <c r="F4">
-        <v>0.8863809050141901</v>
+        <v>1.04482136631295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.062549405279455</v>
+      </c>
       <c r="J4">
-        <v>0.9091348054089227</v>
+        <v>1.031217848555952</v>
+      </c>
+      <c r="K4">
+        <v>1.062353456760403</v>
       </c>
       <c r="L4">
-        <v>0.9155148899199995</v>
+        <v>1.036872232427709</v>
       </c>
       <c r="M4">
-        <v>0.8980761577099413</v>
+        <v>1.054407335812586</v>
       </c>
       <c r="N4">
-        <v>0.9360091246305798</v>
+        <v>1.032682296183242</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.892235951358199</v>
+        <v>1.015961855896575</v>
+      </c>
+      <c r="D5">
+        <v>1.054885439362902</v>
       </c>
       <c r="E5">
-        <v>0.9093659901276253</v>
+        <v>1.030314987929734</v>
       </c>
       <c r="F5">
-        <v>0.8926080939284607</v>
+        <v>1.04773410859187</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.06344598397025</v>
+      </c>
       <c r="J5">
-        <v>0.9143201174651235</v>
+        <v>1.034521433563524</v>
+      </c>
+      <c r="K5">
+        <v>1.06415453215331</v>
       </c>
       <c r="L5">
-        <v>0.9204411746430526</v>
+        <v>1.039845019353892</v>
       </c>
       <c r="M5">
-        <v>0.9039395520933263</v>
+        <v>1.057077605214996</v>
       </c>
       <c r="N5">
-        <v>0.9397625182128189</v>
+        <v>1.035990572660451</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8932140899616782</v>
+        <v>1.016600626048591</v>
+      </c>
+      <c r="D6">
+        <v>1.055223320419407</v>
       </c>
       <c r="E6">
-        <v>0.9102329339587737</v>
+        <v>1.030851127741828</v>
       </c>
       <c r="F6">
-        <v>0.893633681280631</v>
+        <v>1.048218431623127</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.063594777171741</v>
+      </c>
       <c r="J6">
-        <v>0.9151738552646171</v>
+        <v>1.035070519945331</v>
+      </c>
+      <c r="K6">
+        <v>1.064453826056788</v>
       </c>
       <c r="L6">
-        <v>0.9212522853574262</v>
+        <v>1.04033909794974</v>
       </c>
       <c r="M6">
-        <v>0.9049050762349654</v>
+        <v>1.057521438194793</v>
       </c>
       <c r="N6">
-        <v>0.9403804080988148</v>
+        <v>1.036540438807902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.8863765041359365</v>
+        <v>1.012170937487032</v>
+      </c>
+      <c r="D7">
+        <v>1.052881045573151</v>
       </c>
       <c r="E7">
-        <v>0.9041739403315677</v>
+        <v>1.027133580395119</v>
       </c>
       <c r="F7">
-        <v>0.8864654984140545</v>
+        <v>1.044860609238845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.062561504065831</v>
+      </c>
       <c r="J7">
-        <v>0.9092052625882677</v>
+        <v>1.031262372789494</v>
+      </c>
+      <c r="K7">
+        <v>1.062377734664173</v>
       </c>
       <c r="L7">
-        <v>0.9155818258804245</v>
+        <v>1.036912300001212</v>
       </c>
       <c r="M7">
-        <v>0.8981558191355383</v>
+        <v>1.054443323626537</v>
       </c>
       <c r="N7">
-        <v>0.9360601306993034</v>
+        <v>1.032726883646303</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8544333654737136</v>
+        <v>0.9926358586650214</v>
+      </c>
+      <c r="D8">
+        <v>1.042579668000955</v>
       </c>
       <c r="E8">
-        <v>0.8759140301688765</v>
+        <v>1.010753088305313</v>
       </c>
       <c r="F8">
-        <v>0.8530070042871775</v>
+        <v>1.030078766733228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.057970500657332</v>
+      </c>
       <c r="J8">
-        <v>0.8813101289351123</v>
+        <v>1.014459857190906</v>
+      </c>
+      <c r="K8">
+        <v>1.053212180150494</v>
       </c>
       <c r="L8">
-        <v>0.8890860513228438</v>
+        <v>1.021789345887776</v>
       </c>
       <c r="M8">
-        <v>0.8666303371018709</v>
+        <v>1.040866151395622</v>
       </c>
       <c r="N8">
-        <v>0.915861361178696</v>
+        <v>1.015900506548289</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.7736644378268708</v>
+        <v>0.9532650767936808</v>
+      </c>
+      <c r="D9">
+        <v>1.022016762927618</v>
       </c>
       <c r="E9">
-        <v>0.8049295728018134</v>
+        <v>0.9778355527138873</v>
       </c>
       <c r="F9">
-        <v>0.7685264270151606</v>
+        <v>1.000460318429254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.048614956600045</v>
+      </c>
       <c r="J9">
-        <v>0.8108428176494712</v>
+        <v>0.9805834194853323</v>
+      </c>
+      <c r="K9">
+        <v>1.034762454626092</v>
       </c>
       <c r="L9">
-        <v>0.8222446159660476</v>
+        <v>0.9912987688888786</v>
       </c>
       <c r="M9">
-        <v>0.7869612022564345</v>
+        <v>1.013545931700272</v>
       </c>
       <c r="N9">
-        <v>0.8649580651212709</v>
+        <v>0.9819759604154918</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.7736644378268708</v>
+        <v>0.9221435159622628</v>
+      </c>
+      <c r="D10">
+        <v>1.006019374364918</v>
       </c>
       <c r="E10">
-        <v>0.8049295728018134</v>
+        <v>0.9519387459296349</v>
       </c>
       <c r="F10">
-        <v>0.7685264270151606</v>
+        <v>0.9772637732493388</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.041195524550885</v>
+      </c>
       <c r="J10">
-        <v>0.8108428176494712</v>
+        <v>0.9538270642737744</v>
+      </c>
+      <c r="K10">
+        <v>1.020280791050684</v>
       </c>
       <c r="L10">
-        <v>0.8222446159660476</v>
+        <v>0.9672335891413719</v>
       </c>
       <c r="M10">
-        <v>0.7869612022564345</v>
+        <v>0.9920560406830515</v>
       </c>
       <c r="N10">
-        <v>0.8649580651212709</v>
+        <v>0.9551816081105365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.7736644378268708</v>
+        <v>0.9069560963673384</v>
+      </c>
+      <c r="D11">
+        <v>0.9983138664342829</v>
       </c>
       <c r="E11">
-        <v>0.8049295728018134</v>
+        <v>0.939350628248347</v>
       </c>
       <c r="F11">
-        <v>0.7685264270151606</v>
+        <v>0.9660282786930674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.037585371794605</v>
+      </c>
       <c r="J11">
-        <v>0.8108428176494712</v>
+        <v>0.9407863494051133</v>
+      </c>
+      <c r="K11">
+        <v>1.013267650971484</v>
       </c>
       <c r="L11">
-        <v>0.8222446159660476</v>
+        <v>0.9555147083155714</v>
       </c>
       <c r="M11">
-        <v>0.7869612022564345</v>
+        <v>0.9816206054814757</v>
       </c>
       <c r="N11">
-        <v>0.8649580651212709</v>
+        <v>0.9421223739309714</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.7736644378268708</v>
+        <v>0.9009831981798905</v>
+      </c>
+      <c r="D12">
+        <v>0.9953035689291972</v>
       </c>
       <c r="E12">
-        <v>0.8049295728018134</v>
+        <v>0.9344100047181608</v>
       </c>
       <c r="F12">
-        <v>0.7685264270151606</v>
+        <v>0.9616264148247945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.036169194354626</v>
+      </c>
       <c r="J12">
-        <v>0.8108428176494712</v>
+        <v>0.9356616393868427</v>
+      </c>
+      <c r="K12">
+        <v>1.010521301669538</v>
       </c>
       <c r="L12">
-        <v>0.8222446159660476</v>
+        <v>0.9509117736822453</v>
       </c>
       <c r="M12">
-        <v>0.7869612022564345</v>
+        <v>0.9775276647920832</v>
       </c>
       <c r="N12">
-        <v>0.8649580651212709</v>
+        <v>0.9369903862366616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.7736644378268708</v>
+        <v>0.9022809903899942</v>
+      </c>
+      <c r="D13">
+        <v>0.9959566469992436</v>
       </c>
       <c r="E13">
-        <v>0.8049295728018134</v>
+        <v>0.9354830023845259</v>
       </c>
       <c r="F13">
-        <v>0.7685264270151606</v>
+        <v>0.9625820148908104</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.036476698538162</v>
+      </c>
       <c r="J13">
-        <v>0.8108428176494712</v>
+        <v>0.9367749308527636</v>
+      </c>
+      <c r="K13">
+        <v>1.011117427594281</v>
       </c>
       <c r="L13">
-        <v>0.8222446159660476</v>
+        <v>0.9519115942878491</v>
       </c>
       <c r="M13">
-        <v>0.7869612022564345</v>
+        <v>0.9784164145419699</v>
       </c>
       <c r="N13">
-        <v>0.8649580651212709</v>
+        <v>0.9381052587041606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.7736644378268708</v>
+        <v>0.906469694097123</v>
+      </c>
+      <c r="D14">
+        <v>0.9980682865728334</v>
       </c>
       <c r="E14">
-        <v>0.8049295728018134</v>
+        <v>0.9389480703792383</v>
       </c>
       <c r="F14">
-        <v>0.7685264270151606</v>
+        <v>0.965669447804601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.037469958890423</v>
+      </c>
       <c r="J14">
-        <v>0.8108428176494712</v>
+        <v>0.9403689301190354</v>
+      </c>
+      <c r="K14">
+        <v>1.013043741176745</v>
       </c>
       <c r="L14">
-        <v>0.8222446159660476</v>
+        <v>0.9551397366616269</v>
       </c>
       <c r="M14">
-        <v>0.7869612022564345</v>
+        <v>0.9812870517791522</v>
       </c>
       <c r="N14">
-        <v>0.8649580651212709</v>
+        <v>0.9417043618616284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.7736644378268708</v>
+        <v>0.9090037457904291</v>
+      </c>
+      <c r="D15">
+        <v>0.9993485423796643</v>
       </c>
       <c r="E15">
-        <v>0.8049295728018134</v>
+        <v>0.9410457289174561</v>
       </c>
       <c r="F15">
-        <v>0.7685264270151606</v>
+        <v>0.967539580462373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.038071393937215</v>
+      </c>
       <c r="J15">
-        <v>0.8108428176494712</v>
+        <v>0.9425437625023919</v>
+      </c>
+      <c r="K15">
+        <v>1.014210758708167</v>
       </c>
       <c r="L15">
-        <v>0.8222446159660476</v>
+        <v>0.9570935073352115</v>
       </c>
       <c r="M15">
-        <v>0.7869612022564345</v>
+        <v>0.983025261549094</v>
       </c>
       <c r="N15">
-        <v>0.8649580651212709</v>
+        <v>0.943882282756426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.7736644378268708</v>
+        <v>0.9231097515419748</v>
+      </c>
+      <c r="D16">
+        <v>1.00651199100146</v>
       </c>
       <c r="E16">
-        <v>0.8049295728018134</v>
+        <v>0.9527407911476689</v>
       </c>
       <c r="F16">
-        <v>0.7685264270151606</v>
+        <v>0.9779805762462983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.041425566310428</v>
+      </c>
       <c r="J16">
-        <v>0.8108428176494712</v>
+        <v>0.9546571602908543</v>
+      </c>
+      <c r="K16">
+        <v>1.020728321244717</v>
       </c>
       <c r="L16">
-        <v>0.8222446159660476</v>
+        <v>0.967979806608426</v>
       </c>
       <c r="M16">
-        <v>0.7869612022564345</v>
+        <v>0.9927212291312151</v>
       </c>
       <c r="N16">
-        <v>0.8649580651212709</v>
+        <v>0.9560128829591741</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.7736644378268708</v>
+        <v>0.9314565346802129</v>
+      </c>
+      <c r="D17">
+        <v>1.010778768778605</v>
       </c>
       <c r="E17">
-        <v>0.8049295728018134</v>
+        <v>0.9596747772466401</v>
       </c>
       <c r="F17">
-        <v>0.7685264270151606</v>
+        <v>0.9841820957595495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.043414073726531</v>
+      </c>
       <c r="J17">
-        <v>0.8108428176494712</v>
+        <v>0.9618297965726178</v>
+      </c>
+      <c r="K17">
+        <v>1.024600410231266</v>
       </c>
       <c r="L17">
-        <v>0.8222446159660476</v>
+        <v>0.97442883249885</v>
       </c>
       <c r="M17">
-        <v>0.7869612022564345</v>
+        <v>0.9984732733868438</v>
       </c>
       <c r="N17">
-        <v>0.8649580651212709</v>
+        <v>0.9631957052071705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.7736644378268708</v>
+        <v>0.9361662034765802</v>
+      </c>
+      <c r="D18">
+        <v>1.01319500436605</v>
       </c>
       <c r="E18">
-        <v>0.8049295728018134</v>
+        <v>0.9635915263181472</v>
       </c>
       <c r="F18">
-        <v>0.7685264270151606</v>
+        <v>0.987688560800176</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.044536883607003</v>
+      </c>
       <c r="J18">
-        <v>0.8108428176494712</v>
+        <v>0.965878319168778</v>
+      </c>
+      <c r="K18">
+        <v>1.026789796593362</v>
       </c>
       <c r="L18">
-        <v>0.8222446159660476</v>
+        <v>0.9780697742999392</v>
       </c>
       <c r="M18">
-        <v>0.7869612022564345</v>
+        <v>1.001723244418071</v>
       </c>
       <c r="N18">
-        <v>0.8649580651212709</v>
+        <v>0.9672499771697893</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.7736644378268708</v>
+        <v>0.9377469081603803</v>
+      </c>
+      <c r="D19">
+        <v>1.014007329297307</v>
       </c>
       <c r="E19">
-        <v>0.8049295728018134</v>
+        <v>0.9649067668063727</v>
       </c>
       <c r="F19">
-        <v>0.7685264270151606</v>
+        <v>0.988866572376469</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.04491382002753</v>
+      </c>
       <c r="J19">
-        <v>0.8108428176494712</v>
+        <v>0.9672373225362234</v>
+      </c>
+      <c r="K19">
+        <v>1.027525309425647</v>
       </c>
       <c r="L19">
-        <v>0.8222446159660476</v>
+        <v>0.9792920884060495</v>
       </c>
       <c r="M19">
-        <v>0.7869612022564345</v>
+        <v>1.002814698927714</v>
       </c>
       <c r="N19">
-        <v>0.8649580651212709</v>
+        <v>0.9686109104778965</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.7736644378268708</v>
+        <v>0.9305778748065658</v>
+      </c>
+      <c r="D20">
+        <v>1.010328667960802</v>
       </c>
       <c r="E20">
-        <v>0.8049295728018134</v>
+        <v>0.9589443818545385</v>
       </c>
       <c r="F20">
-        <v>0.7685264270151606</v>
+        <v>0.9835284823671938</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.043204649996189</v>
+      </c>
       <c r="J20">
-        <v>0.8108428176494712</v>
+        <v>0.9610745870792589</v>
+      </c>
+      <c r="K20">
+        <v>1.024192299428675</v>
       </c>
       <c r="L20">
-        <v>0.8222446159660476</v>
+        <v>0.9737497183243138</v>
       </c>
       <c r="M20">
-        <v>0.7869612022564345</v>
+        <v>0.99786728188242</v>
       </c>
       <c r="N20">
-        <v>0.8649580651212709</v>
+        <v>0.9624394232297074</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.7736644378268708</v>
+        <v>0.9052461505672397</v>
+      </c>
+      <c r="D21">
+        <v>0.9974508709463398</v>
       </c>
       <c r="E21">
-        <v>0.8049295728018134</v>
+        <v>0.9379356071789471</v>
       </c>
       <c r="F21">
-        <v>0.7685264270151606</v>
+        <v>0.964767094143491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.03717970386995</v>
+      </c>
       <c r="J21">
-        <v>0.8108428176494712</v>
+        <v>0.9393189816709363</v>
+      </c>
+      <c r="K21">
+        <v>1.012480698829427</v>
       </c>
       <c r="L21">
-        <v>0.8222446159660476</v>
+        <v>0.9541965983744933</v>
       </c>
       <c r="M21">
-        <v>0.7869612022564345</v>
+        <v>0.9804481885319138</v>
       </c>
       <c r="N21">
-        <v>0.8649580651212709</v>
+        <v>0.9406529223663022</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.7736644378268708</v>
+        <v>0.8873332833449454</v>
+      </c>
+      <c r="D22">
+        <v>0.9884693592094586</v>
       </c>
       <c r="E22">
-        <v>0.8049295728018134</v>
+        <v>0.9231420025561093</v>
       </c>
       <c r="F22">
-        <v>0.7685264270151606</v>
+        <v>0.95160477317467</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.032942685248419</v>
+      </c>
       <c r="J22">
-        <v>0.8108428176494712</v>
+        <v>0.9239597801391166</v>
+      </c>
+      <c r="K22">
+        <v>1.004272754138494</v>
       </c>
       <c r="L22">
-        <v>0.8222446159660476</v>
+        <v>0.9404069518141197</v>
       </c>
       <c r="M22">
-        <v>0.7869612022564345</v>
+        <v>0.9682000305508345</v>
       </c>
       <c r="N22">
-        <v>0.8649580651212709</v>
+        <v>0.9252719090065823</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.7736644378268708</v>
+        <v>0.8970526912505987</v>
+      </c>
+      <c r="D23">
+        <v>0.9933290929691342</v>
       </c>
       <c r="E23">
-        <v>0.8049295728018134</v>
+        <v>0.9311620474964311</v>
       </c>
       <c r="F23">
-        <v>0.7685264270151606</v>
+        <v>0.9587351621178559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.035238619542232</v>
+      </c>
       <c r="J23">
-        <v>0.8108428176494712</v>
+        <v>0.9322906413818494</v>
+      </c>
+      <c r="K23">
+        <v>1.008717964605021</v>
       </c>
       <c r="L23">
-        <v>0.8222446159660476</v>
+        <v>0.9478847831892412</v>
       </c>
       <c r="M23">
-        <v>0.7869612022564345</v>
+        <v>0.9748379555465265</v>
       </c>
       <c r="N23">
-        <v>0.8649580651212709</v>
+        <v>0.9336146010278429</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.7736644378268708</v>
+        <v>0.9309753891600093</v>
+      </c>
+      <c r="D24">
+        <v>1.010532271032438</v>
       </c>
       <c r="E24">
-        <v>0.8049295728018134</v>
+        <v>0.9592748067529997</v>
       </c>
       <c r="F24">
-        <v>0.7685264270151606</v>
+        <v>0.9838241610086307</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.043299392990448</v>
+      </c>
       <c r="J24">
-        <v>0.8108428176494712</v>
+        <v>0.961416247085442</v>
+      </c>
+      <c r="K24">
+        <v>1.024376918712906</v>
       </c>
       <c r="L24">
-        <v>0.8222446159660476</v>
+        <v>0.9740569498599901</v>
       </c>
       <c r="M24">
-        <v>0.7869612022564345</v>
+        <v>0.9981414248776063</v>
       </c>
       <c r="N24">
-        <v>0.8649580651212709</v>
+        <v>0.9627815684322882</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.7736644378268708</v>
+        <v>0.9641612202630764</v>
+      </c>
+      <c r="D25">
+        <v>1.02767564633059</v>
       </c>
       <c r="E25">
-        <v>0.8049295728018134</v>
+        <v>0.9869303882240499</v>
       </c>
       <c r="F25">
-        <v>0.7685264270151606</v>
+        <v>1.008630241011636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.051211946522159</v>
+      </c>
       <c r="J25">
-        <v>0.8108428176494712</v>
+        <v>0.9899579711227859</v>
+      </c>
+      <c r="K25">
+        <v>1.039859004664022</v>
       </c>
       <c r="L25">
-        <v>0.8222446159660476</v>
+        <v>0.9997350389246943</v>
       </c>
       <c r="M25">
-        <v>0.7869612022564345</v>
+        <v>1.021096044739596</v>
       </c>
       <c r="N25">
-        <v>0.8649580651212709</v>
+        <v>0.9913638249915467</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9873136025985029</v>
+        <v>0.9812041114461414</v>
       </c>
       <c r="D2">
-        <v>1.039782692078344</v>
+        <v>1.025678351546401</v>
       </c>
       <c r="E2">
-        <v>1.006294955813112</v>
+        <v>0.9894648195035636</v>
       </c>
       <c r="F2">
-        <v>1.026060101376636</v>
+        <v>0.9570328372298801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056711925909173</v>
+        <v>1.038642092487641</v>
       </c>
       <c r="J2">
-        <v>1.009880497858593</v>
+        <v>1.003961915603082</v>
       </c>
       <c r="K2">
-        <v>1.050714275840722</v>
+        <v>1.036791172162284</v>
       </c>
       <c r="L2">
-        <v>1.017667283044667</v>
+        <v>1.001072903906226</v>
       </c>
       <c r="M2">
-        <v>1.037167934444696</v>
+        <v>0.969125104067324</v>
       </c>
       <c r="N2">
-        <v>1.011314644000465</v>
+        <v>1.00538765667928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002702968017687</v>
+        <v>0.9902105950684538</v>
       </c>
       <c r="D3">
-        <v>1.047882022046342</v>
+        <v>1.029706068736738</v>
       </c>
       <c r="E3">
-        <v>1.019191428901563</v>
+        <v>0.9970233540011895</v>
       </c>
       <c r="F3">
-        <v>1.037690611658091</v>
+        <v>0.969045907928331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060342699988996</v>
+        <v>1.041204896875878</v>
       </c>
       <c r="J3">
-        <v>1.023120217635862</v>
+        <v>1.010971733916843</v>
       </c>
       <c r="K3">
-        <v>1.057936816749685</v>
+        <v>1.039972456263501</v>
       </c>
       <c r="L3">
-        <v>1.02958450220038</v>
+        <v>1.007694463787728</v>
       </c>
       <c r="M3">
-        <v>1.047862919201855</v>
+        <v>0.9800907961327994</v>
       </c>
       <c r="N3">
-        <v>1.024573165698435</v>
+        <v>1.012407429739084</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012119152322581</v>
+        <v>0.9958114386734517</v>
       </c>
       <c r="D4">
-        <v>1.052853675205</v>
+        <v>1.032225704416584</v>
       </c>
       <c r="E4">
-        <v>1.027090126602321</v>
+        <v>1.001730208352877</v>
       </c>
       <c r="F4">
-        <v>1.04482136631295</v>
+        <v>0.9765018338473122</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062549405279455</v>
+        <v>1.042787677046359</v>
       </c>
       <c r="J4">
-        <v>1.031217848555952</v>
+        <v>1.01532289855085</v>
       </c>
       <c r="K4">
-        <v>1.062353456760403</v>
+        <v>1.041950149455055</v>
       </c>
       <c r="L4">
-        <v>1.036872232427709</v>
+        <v>1.011807796043273</v>
       </c>
       <c r="M4">
-        <v>1.054407335812586</v>
+        <v>0.9868923858259421</v>
       </c>
       <c r="N4">
-        <v>1.032682296183242</v>
+        <v>1.016764773525957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015961855896575</v>
+        <v>0.9981157085349662</v>
       </c>
       <c r="D5">
-        <v>1.054885439362902</v>
+        <v>1.033265530035522</v>
       </c>
       <c r="E5">
-        <v>1.030314987929734</v>
+        <v>1.003668091992144</v>
       </c>
       <c r="F5">
-        <v>1.04773410859187</v>
+        <v>0.9795665351830192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06344598397025</v>
+        <v>1.043436116019028</v>
       </c>
       <c r="J5">
-        <v>1.034521433563524</v>
+        <v>1.01711107597586</v>
       </c>
       <c r="K5">
-        <v>1.06415453215331</v>
+        <v>1.042763422531207</v>
       </c>
       <c r="L5">
-        <v>1.039845019353892</v>
+        <v>1.013498952672739</v>
       </c>
       <c r="M5">
-        <v>1.057077605214996</v>
+        <v>0.9896870238993217</v>
       </c>
       <c r="N5">
-        <v>1.035990572660451</v>
+        <v>1.018555490368017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016600626048591</v>
+        <v>0.9984997622221172</v>
       </c>
       <c r="D6">
-        <v>1.055223320419407</v>
+        <v>1.033439016917911</v>
       </c>
       <c r="E6">
-        <v>1.030851127741828</v>
+        <v>1.003991159525633</v>
       </c>
       <c r="F6">
-        <v>1.048218431623127</v>
+        <v>0.9800771863931552</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063594777171741</v>
+        <v>1.043544027228465</v>
       </c>
       <c r="J6">
-        <v>1.035070519945331</v>
+        <v>1.017408996269833</v>
       </c>
       <c r="K6">
-        <v>1.064453826056788</v>
+        <v>1.04289894261824</v>
       </c>
       <c r="L6">
-        <v>1.04033909794974</v>
+        <v>1.013780750052681</v>
       </c>
       <c r="M6">
-        <v>1.057521438194793</v>
+        <v>0.9901526092688571</v>
       </c>
       <c r="N6">
-        <v>1.036540438807902</v>
+        <v>1.018853833742979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012170937487032</v>
+        <v>0.9958424212389352</v>
       </c>
       <c r="D7">
-        <v>1.052881045573151</v>
+        <v>1.032239673357917</v>
       </c>
       <c r="E7">
-        <v>1.027133580395119</v>
+        <v>1.001756259149853</v>
       </c>
       <c r="F7">
-        <v>1.044860609238845</v>
+        <v>0.9765430510755636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062561504065831</v>
+        <v>1.042796406786074</v>
       </c>
       <c r="J7">
-        <v>1.031262372789494</v>
+        <v>1.015346949681923</v>
       </c>
       <c r="K7">
-        <v>1.062377734664173</v>
+        <v>1.041961086283745</v>
       </c>
       <c r="L7">
-        <v>1.036912300001212</v>
+        <v>1.01183053943006</v>
       </c>
       <c r="M7">
-        <v>1.054443323626537</v>
+        <v>0.9869299754386127</v>
       </c>
       <c r="N7">
-        <v>1.032726883646303</v>
+        <v>1.016788858812394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9926358586650214</v>
+        <v>0.9842974598580463</v>
       </c>
       <c r="D8">
-        <v>1.042579668000955</v>
+        <v>1.027058290528752</v>
       </c>
       <c r="E8">
-        <v>1.010753088305313</v>
+        <v>0.9920594032194331</v>
       </c>
       <c r="F8">
-        <v>1.030078766733228</v>
+        <v>0.961162414051889</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057970500657332</v>
+        <v>1.039524560153954</v>
       </c>
       <c r="J8">
-        <v>1.014459857190906</v>
+        <v>1.006371176382577</v>
       </c>
       <c r="K8">
-        <v>1.053212180150494</v>
+        <v>1.037883801397075</v>
       </c>
       <c r="L8">
-        <v>1.021789345887776</v>
+        <v>1.003348020219973</v>
       </c>
       <c r="M8">
-        <v>1.040866151395622</v>
+        <v>0.9728954963922065</v>
       </c>
       <c r="N8">
-        <v>1.015900506548289</v>
+        <v>1.007800338885427</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9532650767936808</v>
+        <v>0.9620047343000537</v>
       </c>
       <c r="D9">
-        <v>1.022016762927618</v>
+        <v>1.017197418576549</v>
       </c>
       <c r="E9">
-        <v>0.9778355527138873</v>
+        <v>0.973396016936139</v>
       </c>
       <c r="F9">
-        <v>1.000460318429254</v>
+        <v>0.931299374641569</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048614956600045</v>
+        <v>1.033121963543136</v>
       </c>
       <c r="J9">
-        <v>0.9805834194853323</v>
+        <v>0.9889744304918395</v>
       </c>
       <c r="K9">
-        <v>1.034762454626092</v>
+        <v>1.030017508187709</v>
       </c>
       <c r="L9">
-        <v>0.9912987688888786</v>
+        <v>0.9869359948151619</v>
       </c>
       <c r="M9">
-        <v>1.013545931700272</v>
+        <v>0.9456149409389488</v>
       </c>
       <c r="N9">
-        <v>0.9819759604154918</v>
+        <v>0.9903788876200906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9221435159622628</v>
+        <v>0.9454749353863499</v>
       </c>
       <c r="D10">
-        <v>1.006019374364918</v>
+        <v>1.010018606740971</v>
       </c>
       <c r="E10">
-        <v>0.9519387459296349</v>
+        <v>0.9596113903391634</v>
       </c>
       <c r="F10">
-        <v>0.9772637732493388</v>
+        <v>0.9089665291607087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041195524550885</v>
+        <v>1.028325778464234</v>
       </c>
       <c r="J10">
-        <v>0.9538270642737744</v>
+        <v>0.9760323020065881</v>
       </c>
       <c r="K10">
-        <v>1.020280791050684</v>
+        <v>1.024209297933977</v>
       </c>
       <c r="L10">
-        <v>0.9672335891413719</v>
+        <v>0.9747502829394283</v>
       </c>
       <c r="M10">
-        <v>0.9920560406830515</v>
+        <v>0.9251999763372605</v>
       </c>
       <c r="N10">
-        <v>0.9551816081105365</v>
+        <v>0.9774183798279075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9069560963673384</v>
+        <v>0.9378170390365905</v>
       </c>
       <c r="D11">
-        <v>0.9983138664342829</v>
+        <v>1.006733715279404</v>
       </c>
       <c r="E11">
-        <v>0.939350628248347</v>
+        <v>0.9532415452136981</v>
       </c>
       <c r="F11">
-        <v>0.9660282786930674</v>
+        <v>0.8985512898576696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037585371794605</v>
+        <v>1.026094793593342</v>
       </c>
       <c r="J11">
-        <v>0.9407863494051133</v>
+        <v>0.9700267668665661</v>
       </c>
       <c r="K11">
-        <v>1.013267650971484</v>
+        <v>1.02152975112062</v>
       </c>
       <c r="L11">
-        <v>0.9555147083155714</v>
+        <v>0.9691026231785174</v>
       </c>
       <c r="M11">
-        <v>0.9816206054814757</v>
+        <v>0.9156785107152884</v>
       </c>
       <c r="N11">
-        <v>0.9421223739309714</v>
+        <v>0.9714043161391418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9009831981798905</v>
+        <v>0.934885911259338</v>
       </c>
       <c r="D12">
-        <v>0.9953035689291972</v>
+        <v>1.005483481468925</v>
       </c>
       <c r="E12">
-        <v>0.9344100047181608</v>
+        <v>0.9508062247311709</v>
       </c>
       <c r="F12">
-        <v>0.9616264148247945</v>
+        <v>0.8945517274451302</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036169194354626</v>
+        <v>1.025239770558228</v>
       </c>
       <c r="J12">
-        <v>0.9356616393868427</v>
+        <v>0.9677266633409128</v>
       </c>
       <c r="K12">
-        <v>1.010521301669538</v>
+        <v>1.020506375301164</v>
       </c>
       <c r="L12">
-        <v>0.9509117736822453</v>
+        <v>0.9669407471079983</v>
       </c>
       <c r="M12">
-        <v>0.9775276647920832</v>
+        <v>0.9120223572735795</v>
       </c>
       <c r="N12">
-        <v>0.9369903862366616</v>
+        <v>0.9691009462026569</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9022809903899942</v>
+        <v>0.9355187826068996</v>
       </c>
       <c r="D13">
-        <v>0.9959566469992436</v>
+        <v>1.005753088289008</v>
       </c>
       <c r="E13">
-        <v>0.9354830023845259</v>
+        <v>0.9513319122512542</v>
       </c>
       <c r="F13">
-        <v>0.9625820148908104</v>
+        <v>0.8954159266047007</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036476698538162</v>
+        <v>1.025424426613263</v>
       </c>
       <c r="J13">
-        <v>0.9367749308527636</v>
+        <v>0.9682233518670172</v>
       </c>
       <c r="K13">
-        <v>1.011117427594281</v>
+        <v>1.02072722550014</v>
       </c>
       <c r="L13">
-        <v>0.9519115942878491</v>
+        <v>0.9674075318240608</v>
       </c>
       <c r="M13">
-        <v>0.9784164145419699</v>
+        <v>0.9128123408503114</v>
       </c>
       <c r="N13">
-        <v>0.9381052587041606</v>
+        <v>0.969598340083439</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.906469694097123</v>
+        <v>0.9375765945457286</v>
       </c>
       <c r="D14">
-        <v>0.9980682865728334</v>
+        <v>1.006631007729648</v>
       </c>
       <c r="E14">
-        <v>0.9389480703792383</v>
+        <v>0.9530417138264966</v>
       </c>
       <c r="F14">
-        <v>0.965669447804601</v>
+        <v>0.8982234813974213</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037469958890423</v>
+        <v>1.026024675321385</v>
       </c>
       <c r="J14">
-        <v>0.9403689301190354</v>
+        <v>0.9698381149523645</v>
       </c>
       <c r="K14">
-        <v>1.013043741176745</v>
+        <v>1.021445753363251</v>
       </c>
       <c r="L14">
-        <v>0.9551397366616269</v>
+        <v>0.9689252842142538</v>
       </c>
       <c r="M14">
-        <v>0.9812870517791522</v>
+        <v>0.9153788426581352</v>
       </c>
       <c r="N14">
-        <v>0.9417043618616284</v>
+        <v>0.9712153963175838</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9090037457904291</v>
+        <v>0.9388326107585446</v>
       </c>
       <c r="D15">
-        <v>0.9993485423796643</v>
+        <v>1.007167816523248</v>
       </c>
       <c r="E15">
-        <v>0.9410457289174561</v>
+        <v>0.9540856935461191</v>
       </c>
       <c r="F15">
-        <v>0.967539580462373</v>
+        <v>0.899935318076689</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038071393937215</v>
+        <v>1.026390911388395</v>
       </c>
       <c r="J15">
-        <v>0.9425437625023919</v>
+        <v>0.9708235231668653</v>
       </c>
       <c r="K15">
-        <v>1.014210758708167</v>
+        <v>1.021884628935827</v>
       </c>
       <c r="L15">
-        <v>0.9570935073352115</v>
+        <v>0.969851647970315</v>
       </c>
       <c r="M15">
-        <v>0.983025261549094</v>
+        <v>0.9169437379532225</v>
       </c>
       <c r="N15">
-        <v>0.943882282756426</v>
+        <v>0.9722022039247766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9231097515419748</v>
+        <v>0.9459717017511081</v>
       </c>
       <c r="D16">
-        <v>1.00651199100146</v>
+        <v>1.010232609761005</v>
       </c>
       <c r="E16">
-        <v>0.9527407911476689</v>
+        <v>0.9600249621197902</v>
       </c>
       <c r="F16">
-        <v>0.9779805762462983</v>
+        <v>0.9096405440540197</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041425566310428</v>
+        <v>1.02847033817598</v>
       </c>
       <c r="J16">
-        <v>0.9546571602908543</v>
+        <v>0.9764216833833946</v>
       </c>
       <c r="K16">
-        <v>1.020728321244717</v>
+        <v>1.024383394392367</v>
       </c>
       <c r="L16">
-        <v>0.967979806608426</v>
+        <v>0.9751166115997568</v>
       </c>
       <c r="M16">
-        <v>0.9927212291312151</v>
+        <v>0.925816160219002</v>
       </c>
       <c r="N16">
-        <v>0.9560128829591741</v>
+        <v>0.9778083141709316</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9314565346802129</v>
+        <v>0.9503085811162082</v>
       </c>
       <c r="D17">
-        <v>1.010778768778605</v>
+        <v>1.012105553193334</v>
       </c>
       <c r="E17">
-        <v>0.9596747772466401</v>
+        <v>0.9636373819403171</v>
       </c>
       <c r="F17">
-        <v>0.9841820957595495</v>
+        <v>0.9155169225755631</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043414073726531</v>
+        <v>1.029731398913262</v>
       </c>
       <c r="J17">
-        <v>0.9618297965726178</v>
+        <v>0.9798199893690488</v>
       </c>
       <c r="K17">
-        <v>1.024600410231266</v>
+        <v>1.025904606030817</v>
       </c>
       <c r="L17">
-        <v>0.97442883249885</v>
+        <v>0.9783145036111049</v>
       </c>
       <c r="M17">
-        <v>0.9984732733868438</v>
+        <v>0.9311882940419307</v>
       </c>
       <c r="N17">
-        <v>0.9631957052071705</v>
+        <v>0.9812114461408767</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9361662034765802</v>
+        <v>0.952790824466373</v>
       </c>
       <c r="D18">
-        <v>1.01319500436605</v>
+        <v>1.013181265327087</v>
       </c>
       <c r="E18">
-        <v>0.9635915263181472</v>
+        <v>0.9657064576409464</v>
       </c>
       <c r="F18">
-        <v>0.987688560800176</v>
+        <v>0.9188741276119271</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044536883607003</v>
+        <v>1.030452322682982</v>
       </c>
       <c r="J18">
-        <v>0.965878319168778</v>
+        <v>0.9817641312790109</v>
       </c>
       <c r="K18">
-        <v>1.026789796593362</v>
+        <v>1.026776286820348</v>
       </c>
       <c r="L18">
-        <v>0.9780697742999392</v>
+        <v>0.9801446170024707</v>
       </c>
       <c r="M18">
-        <v>1.001723244418071</v>
+        <v>0.9342573394602296</v>
       </c>
       <c r="N18">
-        <v>0.9672499771697893</v>
+        <v>0.9831583489553467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9377469081603803</v>
+        <v>0.9536294754516715</v>
       </c>
       <c r="D19">
-        <v>1.014007329297307</v>
+        <v>1.013545311511953</v>
       </c>
       <c r="E19">
-        <v>0.9649067668063727</v>
+        <v>0.9664057578917636</v>
       </c>
       <c r="F19">
-        <v>0.988866572376469</v>
+        <v>0.9200074123759179</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04491382002753</v>
+        <v>1.030695742342352</v>
       </c>
       <c r="J19">
-        <v>0.9672373225362234</v>
+        <v>0.9824208251927933</v>
       </c>
       <c r="K19">
-        <v>1.027525309425647</v>
+        <v>1.027070948731382</v>
       </c>
       <c r="L19">
-        <v>0.9792920884060495</v>
+        <v>0.9807628972279204</v>
       </c>
       <c r="M19">
-        <v>1.002814698927714</v>
+        <v>0.9352933296022542</v>
       </c>
       <c r="N19">
-        <v>0.9686109104778965</v>
+        <v>0.9838159754498109</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9305778748065658</v>
+        <v>0.9498482509187209</v>
       </c>
       <c r="D20">
-        <v>1.010328667960802</v>
+        <v>1.011906359359844</v>
       </c>
       <c r="E20">
-        <v>0.9589443818545385</v>
+        <v>0.9632537915462366</v>
       </c>
       <c r="F20">
-        <v>0.9835284823671938</v>
+        <v>0.9148938456803566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043204649996189</v>
+        <v>1.029597633099074</v>
       </c>
       <c r="J20">
-        <v>0.9610745870792589</v>
+        <v>0.979459376122009</v>
       </c>
       <c r="K20">
-        <v>1.024192299428675</v>
+        <v>1.025743031540285</v>
       </c>
       <c r="L20">
-        <v>0.9737497183243138</v>
+        <v>0.9779750913003284</v>
       </c>
       <c r="M20">
-        <v>0.99786728188242</v>
+        <v>0.9306186893668477</v>
       </c>
       <c r="N20">
-        <v>0.9624394232297074</v>
+        <v>0.9808503207816629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9052461505672397</v>
+        <v>0.93697311760082</v>
       </c>
       <c r="D21">
-        <v>0.9974508709463398</v>
+        <v>1.006373345429016</v>
       </c>
       <c r="E21">
-        <v>0.9379356071789471</v>
+        <v>0.952540215320055</v>
       </c>
       <c r="F21">
-        <v>0.964767094143491</v>
+        <v>0.8974005155963292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03717970386995</v>
+        <v>1.025848673173636</v>
       </c>
       <c r="J21">
-        <v>0.9393189816709363</v>
+        <v>0.9693646061667516</v>
       </c>
       <c r="K21">
-        <v>1.012480698829427</v>
+        <v>1.021234970534491</v>
       </c>
       <c r="L21">
-        <v>0.9541965983744933</v>
+        <v>0.9684801895994538</v>
       </c>
       <c r="M21">
-        <v>0.9804481885319138</v>
+        <v>0.9146265277340564</v>
       </c>
       <c r="N21">
-        <v>0.9406529223663022</v>
+        <v>0.9707412150951826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8873332833449454</v>
+        <v>0.928368877126677</v>
       </c>
       <c r="D22">
-        <v>0.9884693592094586</v>
+        <v>1.002718073051236</v>
       </c>
       <c r="E22">
-        <v>0.9231420025561093</v>
+        <v>0.9453971915867923</v>
       </c>
       <c r="F22">
-        <v>0.95160477317467</v>
+        <v>0.8856312957589875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032942685248419</v>
+        <v>1.023337022286539</v>
       </c>
       <c r="J22">
-        <v>0.9239597801391166</v>
+        <v>0.9626100094659181</v>
       </c>
       <c r="K22">
-        <v>1.004272754138494</v>
+        <v>1.018235876005796</v>
       </c>
       <c r="L22">
-        <v>0.9404069518141197</v>
+        <v>0.9621339118834705</v>
       </c>
       <c r="M22">
-        <v>0.9682000305508345</v>
+        <v>0.9038685991276589</v>
       </c>
       <c r="N22">
-        <v>0.9252719090065823</v>
+        <v>0.963977026092271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8970526912505987</v>
+        <v>0.9329829910949479</v>
       </c>
       <c r="D23">
-        <v>0.9933290929691342</v>
+        <v>1.004673947871998</v>
       </c>
       <c r="E23">
-        <v>0.9311620474964311</v>
+        <v>0.9492260255585278</v>
       </c>
       <c r="F23">
-        <v>0.9587351621178559</v>
+        <v>0.8919510891347433</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035238619542232</v>
+        <v>1.0246844080268</v>
       </c>
       <c r="J23">
-        <v>0.9322906413818494</v>
+        <v>0.9662330100384233</v>
       </c>
       <c r="K23">
-        <v>1.008717964605021</v>
+        <v>1.019842698903494</v>
       </c>
       <c r="L23">
-        <v>0.9478847831892412</v>
+        <v>0.9655372033028766</v>
       </c>
       <c r="M23">
-        <v>0.9748379555465265</v>
+        <v>0.9096451110407131</v>
       </c>
       <c r="N23">
-        <v>0.9336146010278429</v>
+        <v>0.9676051717411531</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9309753891600093</v>
+        <v>0.9500563999143702</v>
       </c>
       <c r="D24">
-        <v>1.010532271032438</v>
+        <v>1.011996417961763</v>
       </c>
       <c r="E24">
-        <v>0.9592748067529997</v>
+        <v>0.9634272362659698</v>
       </c>
       <c r="F24">
-        <v>0.9838241610086307</v>
+        <v>0.9151756034423827</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043299392990448</v>
+        <v>1.029658121096628</v>
       </c>
       <c r="J24">
-        <v>0.961416247085442</v>
+        <v>0.9796224385944293</v>
       </c>
       <c r="K24">
-        <v>1.024376918712906</v>
+        <v>1.025816088111169</v>
       </c>
       <c r="L24">
-        <v>0.9740569498599901</v>
+        <v>0.9781285651684141</v>
       </c>
       <c r="M24">
-        <v>0.9981414248776063</v>
+        <v>0.9308762670618183</v>
       </c>
       <c r="N24">
-        <v>0.9627815684322882</v>
+        <v>0.9810136148214977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9641612202630764</v>
+        <v>0.9680318173367868</v>
       </c>
       <c r="D25">
-        <v>1.02767564633059</v>
+        <v>1.019843784301868</v>
       </c>
       <c r="E25">
-        <v>0.9869303882240499</v>
+        <v>0.9784337776967799</v>
       </c>
       <c r="F25">
-        <v>1.008630241011636</v>
+        <v>0.9393986579728485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051211946522159</v>
+        <v>1.03486185778579</v>
       </c>
       <c r="J25">
-        <v>0.9899579711227859</v>
+        <v>0.9936851034974881</v>
       </c>
       <c r="K25">
-        <v>1.039859004664022</v>
+        <v>1.032141667565477</v>
       </c>
       <c r="L25">
-        <v>0.9997350389246943</v>
+        <v>0.9913763691135259</v>
       </c>
       <c r="M25">
-        <v>1.021096044739596</v>
+        <v>0.9530167095634073</v>
       </c>
       <c r="N25">
-        <v>0.9913638249915467</v>
+        <v>0.9950962503217289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9812041114461414</v>
+        <v>1.037192036402459</v>
       </c>
       <c r="D2">
-        <v>1.025678351546401</v>
+        <v>1.037920407686496</v>
       </c>
       <c r="E2">
-        <v>0.9894648195035636</v>
+        <v>1.035928576258067</v>
       </c>
       <c r="F2">
-        <v>0.9570328372298801</v>
+        <v>1.035890701401351</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038642092487641</v>
+        <v>1.037128369315202</v>
       </c>
       <c r="J2">
-        <v>1.003961915603082</v>
+        <v>1.042296246904896</v>
       </c>
       <c r="K2">
-        <v>1.036791172162284</v>
+        <v>1.040709916208559</v>
       </c>
       <c r="L2">
-        <v>1.001072903906226</v>
+        <v>1.038723776063301</v>
       </c>
       <c r="M2">
-        <v>0.969125104067324</v>
+        <v>1.038686009657163</v>
       </c>
       <c r="N2">
-        <v>1.00538765667928</v>
+        <v>1.043776427128607</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9902105950684538</v>
+        <v>1.038854277193227</v>
       </c>
       <c r="D3">
-        <v>1.029706068736738</v>
+        <v>1.038658757216885</v>
       </c>
       <c r="E3">
-        <v>0.9970233540011895</v>
+        <v>1.037366102321112</v>
       </c>
       <c r="F3">
-        <v>0.969045907928331</v>
+        <v>1.038190592407985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041204896875878</v>
+        <v>1.037513795937972</v>
       </c>
       <c r="J3">
-        <v>1.010971733916843</v>
+        <v>1.043599183870308</v>
       </c>
       <c r="K3">
-        <v>1.039972456263501</v>
+        <v>1.04125836193355</v>
       </c>
       <c r="L3">
-        <v>1.007694463787728</v>
+        <v>1.039969131365413</v>
       </c>
       <c r="M3">
-        <v>0.9800907961327994</v>
+        <v>1.040791436259562</v>
       </c>
       <c r="N3">
-        <v>1.012407429739084</v>
+        <v>1.045081214413903</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9958114386734517</v>
+        <v>1.039926400807362</v>
       </c>
       <c r="D4">
-        <v>1.032225704416584</v>
+        <v>1.03913520772315</v>
       </c>
       <c r="E4">
-        <v>1.001730208352877</v>
+        <v>1.038293399558383</v>
       </c>
       <c r="F4">
-        <v>0.9765018338473122</v>
+        <v>1.039674711336504</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042787677046359</v>
+        <v>1.037760767237491</v>
       </c>
       <c r="J4">
-        <v>1.01532289855085</v>
+        <v>1.04443852953365</v>
       </c>
       <c r="K4">
-        <v>1.041950149455055</v>
+        <v>1.041611269572601</v>
       </c>
       <c r="L4">
-        <v>1.011807796043273</v>
+        <v>1.040771578285673</v>
       </c>
       <c r="M4">
-        <v>0.9868923858259421</v>
+        <v>1.042149418448723</v>
       </c>
       <c r="N4">
-        <v>1.016764773525957</v>
+        <v>1.045921752044361</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9981157085349662</v>
+        <v>1.040376310521044</v>
       </c>
       <c r="D5">
-        <v>1.033265530035522</v>
+        <v>1.039335197309797</v>
       </c>
       <c r="E5">
-        <v>1.003668091992144</v>
+        <v>1.038682559577106</v>
       </c>
       <c r="F5">
-        <v>0.9795665351830192</v>
+        <v>1.04029769016468</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043436116019028</v>
+        <v>1.037864017310145</v>
       </c>
       <c r="J5">
-        <v>1.01711107597586</v>
+        <v>1.044790508249617</v>
       </c>
       <c r="K5">
-        <v>1.042763422531207</v>
+        <v>1.041759163343974</v>
       </c>
       <c r="L5">
-        <v>1.013498952672739</v>
+        <v>1.041108129969889</v>
       </c>
       <c r="M5">
-        <v>0.9896870238993217</v>
+        <v>1.042719294084363</v>
       </c>
       <c r="N5">
-        <v>1.018555490368017</v>
+        <v>1.046274230610478</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9984997622221172</v>
+        <v>1.040451805261087</v>
       </c>
       <c r="D6">
-        <v>1.033439016917911</v>
+        <v>1.039368758355715</v>
       </c>
       <c r="E6">
-        <v>1.003991159525633</v>
+        <v>1.038747862015092</v>
       </c>
       <c r="F6">
-        <v>0.9800771863931552</v>
+        <v>1.040402236464137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043544027228465</v>
+        <v>1.037881319751397</v>
       </c>
       <c r="J6">
-        <v>1.017408996269833</v>
+        <v>1.04484955568331</v>
       </c>
       <c r="K6">
-        <v>1.04289894261824</v>
+        <v>1.041783967990515</v>
       </c>
       <c r="L6">
-        <v>1.013780750052681</v>
+        <v>1.041164592101764</v>
       </c>
       <c r="M6">
-        <v>0.9901526092688571</v>
+        <v>1.042814919643821</v>
       </c>
       <c r="N6">
-        <v>1.018853833742979</v>
+        <v>1.046333361898299</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9958424212389352</v>
+        <v>1.039932415687212</v>
       </c>
       <c r="D7">
-        <v>1.032239673357917</v>
+        <v>1.03913788120755</v>
       </c>
       <c r="E7">
-        <v>1.001756259149853</v>
+        <v>1.038298602170615</v>
       </c>
       <c r="F7">
-        <v>0.9765430510755636</v>
+        <v>1.039683039284258</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042796406786074</v>
+        <v>1.03776214913038</v>
       </c>
       <c r="J7">
-        <v>1.015346949681923</v>
+        <v>1.044443236138441</v>
       </c>
       <c r="K7">
-        <v>1.041961086283745</v>
+        <v>1.041613247572345</v>
       </c>
       <c r="L7">
-        <v>1.01183053943006</v>
+        <v>1.040776078420403</v>
       </c>
       <c r="M7">
-        <v>0.9869299754386127</v>
+        <v>1.042157037127907</v>
       </c>
       <c r="N7">
-        <v>1.016788858812394</v>
+        <v>1.045926465333071</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9842974598580463</v>
+        <v>1.037754524389517</v>
       </c>
       <c r="D8">
-        <v>1.027058290528752</v>
+        <v>1.038170210037681</v>
       </c>
       <c r="E8">
-        <v>0.9920594032194331</v>
+        <v>1.036414998942357</v>
       </c>
       <c r="F8">
-        <v>0.961162414051889</v>
+        <v>1.036668818972795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039524560153954</v>
+        <v>1.037259130689616</v>
       </c>
       <c r="J8">
-        <v>1.006371176382577</v>
+        <v>1.042737363500929</v>
       </c>
       <c r="K8">
-        <v>1.037883801397075</v>
+        <v>1.040895676946676</v>
       </c>
       <c r="L8">
-        <v>1.003348020219973</v>
+        <v>1.03914535737421</v>
       </c>
       <c r="M8">
-        <v>0.9728954963922065</v>
+        <v>1.039398468933642</v>
       </c>
       <c r="N8">
-        <v>1.007800338885427</v>
+        <v>1.044218170160747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9620047343000537</v>
+        <v>1.033889570986664</v>
       </c>
       <c r="D9">
-        <v>1.017197418576549</v>
+        <v>1.036454842516318</v>
       </c>
       <c r="E9">
-        <v>0.973396016936139</v>
+        <v>1.03307320336267</v>
       </c>
       <c r="F9">
-        <v>0.931299374641569</v>
+        <v>1.031324973954534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033121963543136</v>
+        <v>1.036353989860937</v>
       </c>
       <c r="J9">
-        <v>0.9889744304918395</v>
+        <v>1.039702127940913</v>
       </c>
       <c r="K9">
-        <v>1.030017508187709</v>
+        <v>1.039615937252812</v>
       </c>
       <c r="L9">
-        <v>0.9869359948151619</v>
+        <v>1.036245358380554</v>
       </c>
       <c r="M9">
-        <v>0.9456149409389488</v>
+        <v>1.034502878069634</v>
       </c>
       <c r="N9">
-        <v>0.9903788876200906</v>
+        <v>1.04117862421809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9454749353863499</v>
+        <v>1.031293568948738</v>
       </c>
       <c r="D10">
-        <v>1.010018606740971</v>
+        <v>1.035304163780574</v>
       </c>
       <c r="E10">
-        <v>0.9596113903391634</v>
+        <v>1.030829265469391</v>
       </c>
       <c r="F10">
-        <v>0.9089665291607087</v>
+        <v>1.027738830328581</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028325778464234</v>
+        <v>1.035737693793637</v>
       </c>
       <c r="J10">
-        <v>0.9760323020065881</v>
+        <v>1.037658094114577</v>
       </c>
       <c r="K10">
-        <v>1.024209297933977</v>
+        <v>1.038752250339361</v>
       </c>
       <c r="L10">
-        <v>0.9747502829394283</v>
+        <v>1.034293440768739</v>
       </c>
       <c r="M10">
-        <v>0.9251999763372605</v>
+        <v>1.031214207100559</v>
       </c>
       <c r="N10">
-        <v>0.9774183798279075</v>
+        <v>1.039131687629267</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9378170390365905</v>
+        <v>1.030164640480066</v>
       </c>
       <c r="D11">
-        <v>1.006733715279404</v>
+        <v>1.034804168773224</v>
       </c>
       <c r="E11">
-        <v>0.9532415452136981</v>
+        <v>1.029853612398562</v>
       </c>
       <c r="F11">
-        <v>0.8985512898576696</v>
+        <v>1.026179995581962</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026094793593342</v>
+        <v>1.03546772039527</v>
       </c>
       <c r="J11">
-        <v>0.9700267668665661</v>
+        <v>1.036767938143274</v>
       </c>
       <c r="K11">
-        <v>1.02152975112062</v>
+        <v>1.038375711142508</v>
       </c>
       <c r="L11">
-        <v>0.9691026231785174</v>
+        <v>1.033443652199766</v>
       </c>
       <c r="M11">
-        <v>0.9156785107152884</v>
+        <v>1.029783889411774</v>
       </c>
       <c r="N11">
-        <v>0.9714043161391418</v>
+        <v>1.038240267534382</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.934885911259338</v>
+        <v>1.029744558046557</v>
       </c>
       <c r="D12">
-        <v>1.005483481468925</v>
+        <v>1.034618181617205</v>
       </c>
       <c r="E12">
-        <v>0.9508062247311709</v>
+        <v>1.029490591909932</v>
       </c>
       <c r="F12">
-        <v>0.8945517274451302</v>
+        <v>1.025600037076963</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025239770558228</v>
+        <v>1.035366967447403</v>
       </c>
       <c r="J12">
-        <v>0.9677266633409128</v>
+        <v>1.036436515117447</v>
       </c>
       <c r="K12">
-        <v>1.020506375301164</v>
+        <v>1.038235458586449</v>
       </c>
       <c r="L12">
-        <v>0.9669407471079983</v>
+        <v>1.033127296956842</v>
       </c>
       <c r="M12">
-        <v>0.9120223572735795</v>
+        <v>1.029251626922211</v>
       </c>
       <c r="N12">
-        <v>0.9691009462026569</v>
+        <v>1.037908373849844</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9355187826068996</v>
+        <v>1.029834701343153</v>
       </c>
       <c r="D13">
-        <v>1.005753088289008</v>
+        <v>1.034658088642514</v>
       </c>
       <c r="E13">
-        <v>0.9513319122512542</v>
+        <v>1.029568489339052</v>
       </c>
       <c r="F13">
-        <v>0.8954159266047007</v>
+        <v>1.025724483149822</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025424426613263</v>
+        <v>1.035388600774868</v>
       </c>
       <c r="J13">
-        <v>0.9682233518670172</v>
+        <v>1.036507642027415</v>
       </c>
       <c r="K13">
-        <v>1.02072722550014</v>
+        <v>1.038265560925488</v>
       </c>
       <c r="L13">
-        <v>0.9674075318240608</v>
+        <v>1.033195188426914</v>
       </c>
       <c r="M13">
-        <v>0.9128123408503114</v>
+        <v>1.029365843846595</v>
       </c>
       <c r="N13">
-        <v>0.969598340083439</v>
+        <v>1.037979601768182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9375765945457286</v>
+        <v>1.030129931717058</v>
       </c>
       <c r="D14">
-        <v>1.006631007729648</v>
+        <v>1.034788800486586</v>
       </c>
       <c r="E14">
-        <v>0.9530417138264966</v>
+        <v>1.029823617745968</v>
       </c>
       <c r="F14">
-        <v>0.8982234813974213</v>
+        <v>1.026132075366518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026024675321385</v>
+        <v>1.035459401800046</v>
       </c>
       <c r="J14">
-        <v>0.9698381149523645</v>
+        <v>1.036740558611907</v>
       </c>
       <c r="K14">
-        <v>1.021445753363251</v>
+        <v>1.038364125789686</v>
       </c>
       <c r="L14">
-        <v>0.9689252842142538</v>
+        <v>1.033417516668136</v>
       </c>
       <c r="M14">
-        <v>0.9153788426581352</v>
+        <v>1.029739912583216</v>
       </c>
       <c r="N14">
-        <v>0.9712153963175838</v>
+        <v>1.03821284912094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9388326107585446</v>
+        <v>1.030311733137592</v>
       </c>
       <c r="D15">
-        <v>1.007167816523248</v>
+        <v>1.034869300875769</v>
       </c>
       <c r="E15">
-        <v>0.9540856935461191</v>
+        <v>1.029980728188717</v>
       </c>
       <c r="F15">
-        <v>0.899935318076689</v>
+        <v>1.026383081056238</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026390911388395</v>
+        <v>1.035502961843094</v>
       </c>
       <c r="J15">
-        <v>0.9708235231668653</v>
+        <v>1.036883962411224</v>
       </c>
       <c r="K15">
-        <v>1.021884628935827</v>
+        <v>1.038424803141728</v>
       </c>
       <c r="L15">
-        <v>0.969851647970315</v>
+        <v>1.033554406424073</v>
       </c>
       <c r="M15">
-        <v>0.9169437379532225</v>
+        <v>1.029970258007056</v>
       </c>
       <c r="N15">
-        <v>0.9722022039247766</v>
+        <v>1.0383564565701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9459717017511081</v>
+        <v>1.031368388435523</v>
       </c>
       <c r="D16">
-        <v>1.010232609761005</v>
+        <v>1.035337309660593</v>
       </c>
       <c r="E16">
-        <v>0.9600249621197902</v>
+        <v>1.030893930389274</v>
       </c>
       <c r="F16">
-        <v>0.9096405440540197</v>
+        <v>1.027842155454975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02847033817598</v>
+        <v>1.035755545015796</v>
       </c>
       <c r="J16">
-        <v>0.9764216833833946</v>
+        <v>1.037717062457675</v>
       </c>
       <c r="K16">
-        <v>1.024383394392367</v>
+        <v>1.038777185709685</v>
       </c>
       <c r="L16">
-        <v>0.9751166115997568</v>
+        <v>1.034349740297815</v>
       </c>
       <c r="M16">
-        <v>0.925816160219002</v>
+        <v>1.031308997081782</v>
       </c>
       <c r="N16">
-        <v>0.9778083141709316</v>
+        <v>1.039190739714176</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9503085811162082</v>
+        <v>1.032029889464308</v>
       </c>
       <c r="D17">
-        <v>1.012105553193334</v>
+        <v>1.035630409053713</v>
       </c>
       <c r="E17">
-        <v>0.9636373819403171</v>
+        <v>1.031465671946371</v>
       </c>
       <c r="F17">
-        <v>0.9155169225755631</v>
+        <v>1.028755760578278</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029731398913262</v>
+        <v>1.03591314672099</v>
       </c>
       <c r="J17">
-        <v>0.9798199893690488</v>
+        <v>1.038238273322384</v>
       </c>
       <c r="K17">
-        <v>1.025904606030817</v>
+        <v>1.038997537909056</v>
       </c>
       <c r="L17">
-        <v>0.9783145036111049</v>
+        <v>1.034847391021126</v>
       </c>
       <c r="M17">
-        <v>0.9311882940419307</v>
+        <v>1.03214704314494</v>
       </c>
       <c r="N17">
-        <v>0.9812114461408767</v>
+        <v>1.039712690758097</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.952790824466373</v>
+        <v>1.032415266002591</v>
       </c>
       <c r="D18">
-        <v>1.013181265327087</v>
+        <v>1.035801201076208</v>
       </c>
       <c r="E18">
-        <v>0.9657064576409464</v>
+        <v>1.031798773043272</v>
       </c>
       <c r="F18">
-        <v>0.9188741276119271</v>
+        <v>1.029288073401217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030452322682982</v>
+        <v>1.036004773105245</v>
       </c>
       <c r="J18">
-        <v>0.9817641312790109</v>
+        <v>1.038541798209282</v>
       </c>
       <c r="K18">
-        <v>1.026776286820348</v>
+        <v>1.039125819239377</v>
       </c>
       <c r="L18">
-        <v>0.9801446170024707</v>
+        <v>1.035137219942997</v>
       </c>
       <c r="M18">
-        <v>0.9342573394602296</v>
+        <v>1.032635255426033</v>
       </c>
       <c r="N18">
-        <v>0.9831583489553467</v>
+        <v>1.040016646685148</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9536294754516715</v>
+        <v>1.032546591051259</v>
       </c>
       <c r="D19">
-        <v>1.013545311511953</v>
+        <v>1.035859408408075</v>
       </c>
       <c r="E19">
-        <v>0.9664057578917636</v>
+        <v>1.031912286920932</v>
       </c>
       <c r="F19">
-        <v>0.9200074123759179</v>
+        <v>1.029469481394462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030695742342352</v>
+        <v>1.03603596459801</v>
       </c>
       <c r="J19">
-        <v>0.9824208251927933</v>
+        <v>1.038645209985174</v>
       </c>
       <c r="K19">
-        <v>1.027070948731382</v>
+        <v>1.039169518216394</v>
       </c>
       <c r="L19">
-        <v>0.9807628972279204</v>
+        <v>1.03523596955594</v>
       </c>
       <c r="M19">
-        <v>0.9352933296022542</v>
+        <v>1.032801621405975</v>
       </c>
       <c r="N19">
-        <v>0.9838159754498109</v>
+        <v>1.040120205317623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9498482509187209</v>
+        <v>1.031958964994772</v>
       </c>
       <c r="D20">
-        <v>1.011906359359844</v>
+        <v>1.035598979663467</v>
       </c>
       <c r="E20">
-        <v>0.9632537915462366</v>
+        <v>1.031404369541676</v>
       </c>
       <c r="F20">
-        <v>0.9148938456803566</v>
+        <v>1.028657799388061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029597633099074</v>
+        <v>1.03589626861915</v>
       </c>
       <c r="J20">
-        <v>0.979459376122009</v>
+        <v>1.038182402988282</v>
       </c>
       <c r="K20">
-        <v>1.025743031540285</v>
+        <v>1.038973921723422</v>
       </c>
       <c r="L20">
-        <v>0.9779750913003284</v>
+        <v>1.034794043671936</v>
       </c>
       <c r="M20">
-        <v>0.9306186893668477</v>
+        <v>1.032057191626255</v>
       </c>
       <c r="N20">
-        <v>0.9808503207816629</v>
+        <v>1.039656741081711</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.93697311760082</v>
+        <v>1.030043014549492</v>
       </c>
       <c r="D21">
-        <v>1.006373345429016</v>
+        <v>1.034750316508995</v>
       </c>
       <c r="E21">
-        <v>0.952540215320055</v>
+        <v>1.029748506024403</v>
       </c>
       <c r="F21">
-        <v>0.8974005155963292</v>
+        <v>1.026012075789567</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025848673173636</v>
+        <v>1.035438565755892</v>
       </c>
       <c r="J21">
-        <v>0.9693646061667516</v>
+        <v>1.036671992136821</v>
       </c>
       <c r="K21">
-        <v>1.021234970534491</v>
+        <v>1.038335111676099</v>
       </c>
       <c r="L21">
-        <v>0.9684801895994538</v>
+        <v>1.033352066155473</v>
       </c>
       <c r="M21">
-        <v>0.9146265277340564</v>
+        <v>1.029629785943817</v>
       </c>
       <c r="N21">
-        <v>0.9707412150951826</v>
+        <v>1.038144185273594</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.928368877126677</v>
+        <v>1.02883404156505</v>
       </c>
       <c r="D22">
-        <v>1.002718073051236</v>
+        <v>1.034215182532386</v>
       </c>
       <c r="E22">
-        <v>0.9453971915867923</v>
+        <v>1.028703806312501</v>
       </c>
       <c r="F22">
-        <v>0.8856312957589875</v>
+        <v>1.024343160501747</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023337022286539</v>
+        <v>1.035148051702283</v>
       </c>
       <c r="J22">
-        <v>0.9626100094659181</v>
+        <v>1.035717818612393</v>
       </c>
       <c r="K22">
-        <v>1.018235876005796</v>
+        <v>1.037931212521029</v>
       </c>
       <c r="L22">
-        <v>0.9621339118834705</v>
+        <v>1.03244134550139</v>
       </c>
       <c r="M22">
-        <v>0.9038685991276589</v>
+        <v>1.028097900289511</v>
       </c>
       <c r="N22">
-        <v>0.963977026092271</v>
+        <v>1.037188656713317</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9329829910949479</v>
+        <v>1.029475359251782</v>
       </c>
       <c r="D23">
-        <v>1.004673947871998</v>
+        <v>1.034499015326755</v>
       </c>
       <c r="E23">
-        <v>0.9492260255585278</v>
+        <v>1.029257967525048</v>
       </c>
       <c r="F23">
-        <v>0.8919510891347433</v>
+        <v>1.02522841183929</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0246844080268</v>
+        <v>1.03530231995998</v>
       </c>
       <c r="J23">
-        <v>0.9662330100384233</v>
+        <v>1.036224078029021</v>
       </c>
       <c r="K23">
-        <v>1.019842698903494</v>
+        <v>1.038145542430186</v>
       </c>
       <c r="L23">
-        <v>0.9655372033028766</v>
+        <v>1.032924528883705</v>
       </c>
       <c r="M23">
-        <v>0.9096451110407131</v>
+        <v>1.028910531032759</v>
       </c>
       <c r="N23">
-        <v>0.9676051717411531</v>
+        <v>1.037695635076385</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9500563999143702</v>
+        <v>1.031991014148539</v>
       </c>
       <c r="D24">
-        <v>1.011996417961763</v>
+        <v>1.035613181770956</v>
       </c>
       <c r="E24">
-        <v>0.9634272362659698</v>
+        <v>1.031432070652281</v>
       </c>
       <c r="F24">
-        <v>0.9151756034423827</v>
+        <v>1.028702065616792</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029658121096628</v>
+        <v>1.035903896033857</v>
       </c>
       <c r="J24">
-        <v>0.9796224385944293</v>
+        <v>1.038207649896699</v>
       </c>
       <c r="K24">
-        <v>1.025816088111169</v>
+        <v>1.038984593622483</v>
       </c>
       <c r="L24">
-        <v>0.9781285651684141</v>
+        <v>1.034818150409164</v>
       </c>
       <c r="M24">
-        <v>0.9308762670618183</v>
+        <v>1.032097793530805</v>
       </c>
       <c r="N24">
-        <v>0.9810136148214977</v>
+        <v>1.039682023843634</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9680318173367868</v>
+        <v>1.034892089131911</v>
       </c>
       <c r="D25">
-        <v>1.019843784301868</v>
+        <v>1.036899539928347</v>
       </c>
       <c r="E25">
-        <v>0.9784337776967799</v>
+        <v>1.033939907916896</v>
       </c>
       <c r="F25">
-        <v>0.9393986579728485</v>
+        <v>1.032710509185649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03486185778579</v>
+        <v>1.036590239603518</v>
       </c>
       <c r="J25">
-        <v>0.9936851034974881</v>
+        <v>1.040490365953922</v>
       </c>
       <c r="K25">
-        <v>1.032141667565477</v>
+        <v>1.039948617675215</v>
       </c>
       <c r="L25">
-        <v>0.9913763691135259</v>
+        <v>1.036998294438557</v>
       </c>
       <c r="M25">
-        <v>0.9530167095634073</v>
+        <v>1.035772779620571</v>
       </c>
       <c r="N25">
-        <v>0.9950962503217289</v>
+        <v>1.041967981619489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037192036402459</v>
+        <v>0.9812041114461419</v>
       </c>
       <c r="D2">
-        <v>1.037920407686496</v>
+        <v>1.025678351546401</v>
       </c>
       <c r="E2">
-        <v>1.035928576258067</v>
+        <v>0.9894648195035637</v>
       </c>
       <c r="F2">
-        <v>1.035890701401351</v>
+        <v>0.9570328372298811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037128369315202</v>
+        <v>1.038642092487641</v>
       </c>
       <c r="J2">
-        <v>1.042296246904896</v>
+        <v>1.003961915603083</v>
       </c>
       <c r="K2">
-        <v>1.040709916208559</v>
+        <v>1.036791172162284</v>
       </c>
       <c r="L2">
-        <v>1.038723776063301</v>
+        <v>1.001072903906227</v>
       </c>
       <c r="M2">
-        <v>1.038686009657163</v>
+        <v>0.9691251040673248</v>
       </c>
       <c r="N2">
-        <v>1.043776427128607</v>
+        <v>1.00538765667928</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038854277193227</v>
+        <v>0.990210595068453</v>
       </c>
       <c r="D3">
-        <v>1.038658757216885</v>
+        <v>1.029706068736737</v>
       </c>
       <c r="E3">
-        <v>1.037366102321112</v>
+        <v>0.9970233540011889</v>
       </c>
       <c r="F3">
-        <v>1.038190592407985</v>
+        <v>0.9690459079283305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037513795937972</v>
+        <v>1.041204896875877</v>
       </c>
       <c r="J3">
-        <v>1.043599183870308</v>
+        <v>1.010971733916842</v>
       </c>
       <c r="K3">
-        <v>1.04125836193355</v>
+        <v>1.0399724562635</v>
       </c>
       <c r="L3">
-        <v>1.039969131365413</v>
+        <v>1.007694463787728</v>
       </c>
       <c r="M3">
-        <v>1.040791436259562</v>
+        <v>0.9800907961327986</v>
       </c>
       <c r="N3">
-        <v>1.045081214413903</v>
+        <v>1.012407429739083</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039926400807362</v>
+        <v>0.995811438673453</v>
       </c>
       <c r="D4">
-        <v>1.03913520772315</v>
+        <v>1.032225704416585</v>
       </c>
       <c r="E4">
-        <v>1.038293399558383</v>
+        <v>1.001730208352878</v>
       </c>
       <c r="F4">
-        <v>1.039674711336504</v>
+        <v>0.9765018338473147</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037760767237491</v>
+        <v>1.04278767704636</v>
       </c>
       <c r="J4">
-        <v>1.04443852953365</v>
+        <v>1.015322898550852</v>
       </c>
       <c r="K4">
-        <v>1.041611269572601</v>
+        <v>1.041950149455056</v>
       </c>
       <c r="L4">
-        <v>1.040771578285673</v>
+        <v>1.011807796043274</v>
       </c>
       <c r="M4">
-        <v>1.042149418448723</v>
+        <v>0.9868923858259445</v>
       </c>
       <c r="N4">
-        <v>1.045921752044361</v>
+        <v>1.016764773525959</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040376310521044</v>
+        <v>0.9981157085349651</v>
       </c>
       <c r="D5">
-        <v>1.039335197309797</v>
+        <v>1.03326553003552</v>
       </c>
       <c r="E5">
-        <v>1.038682559577106</v>
+        <v>1.003668091992143</v>
       </c>
       <c r="F5">
-        <v>1.04029769016468</v>
+        <v>0.9795665351830177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037864017310145</v>
+        <v>1.043436116019028</v>
       </c>
       <c r="J5">
-        <v>1.044790508249617</v>
+        <v>1.017111075975859</v>
       </c>
       <c r="K5">
-        <v>1.041759163343974</v>
+        <v>1.042763422531206</v>
       </c>
       <c r="L5">
-        <v>1.041108129969889</v>
+        <v>1.013498952672738</v>
       </c>
       <c r="M5">
-        <v>1.042719294084363</v>
+        <v>0.9896870238993206</v>
       </c>
       <c r="N5">
-        <v>1.046274230610478</v>
+        <v>1.018555490368016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040451805261087</v>
+        <v>0.9984997622221181</v>
       </c>
       <c r="D6">
-        <v>1.039368758355715</v>
+        <v>1.033439016917912</v>
       </c>
       <c r="E6">
-        <v>1.038747862015092</v>
+        <v>1.003991159525634</v>
       </c>
       <c r="F6">
-        <v>1.040402236464137</v>
+        <v>0.9800771863931559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037881319751397</v>
+        <v>1.043544027228466</v>
       </c>
       <c r="J6">
-        <v>1.04484955568331</v>
+        <v>1.017408996269834</v>
       </c>
       <c r="K6">
-        <v>1.041783967990515</v>
+        <v>1.04289894261824</v>
       </c>
       <c r="L6">
-        <v>1.041164592101764</v>
+        <v>1.013780750052682</v>
       </c>
       <c r="M6">
-        <v>1.042814919643821</v>
+        <v>0.9901526092688578</v>
       </c>
       <c r="N6">
-        <v>1.046333361898299</v>
+        <v>1.01885383374298</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039932415687212</v>
+        <v>0.9958424212389355</v>
       </c>
       <c r="D7">
-        <v>1.03913788120755</v>
+        <v>1.032239673357917</v>
       </c>
       <c r="E7">
-        <v>1.038298602170615</v>
+        <v>1.001756259149854</v>
       </c>
       <c r="F7">
-        <v>1.039683039284258</v>
+        <v>0.9765430510755642</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03776214913038</v>
+        <v>1.042796406786074</v>
       </c>
       <c r="J7">
-        <v>1.044443236138441</v>
+        <v>1.015346949681923</v>
       </c>
       <c r="K7">
-        <v>1.041613247572345</v>
+        <v>1.041961086283745</v>
       </c>
       <c r="L7">
-        <v>1.040776078420403</v>
+        <v>1.01183053943006</v>
       </c>
       <c r="M7">
-        <v>1.042157037127907</v>
+        <v>0.9869299754386132</v>
       </c>
       <c r="N7">
-        <v>1.045926465333071</v>
+        <v>1.016788858812394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037754524389517</v>
+        <v>0.9842974598580467</v>
       </c>
       <c r="D8">
-        <v>1.038170210037681</v>
+        <v>1.027058290528752</v>
       </c>
       <c r="E8">
-        <v>1.036414998942357</v>
+        <v>0.9920594032194333</v>
       </c>
       <c r="F8">
-        <v>1.036668818972795</v>
+        <v>0.9611624140518897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037259130689616</v>
+        <v>1.039524560153954</v>
       </c>
       <c r="J8">
-        <v>1.042737363500929</v>
+        <v>1.006371176382577</v>
       </c>
       <c r="K8">
-        <v>1.040895676946676</v>
+        <v>1.037883801397075</v>
       </c>
       <c r="L8">
-        <v>1.03914535737421</v>
+        <v>1.003348020219974</v>
       </c>
       <c r="M8">
-        <v>1.039398468933642</v>
+        <v>0.9728954963922068</v>
       </c>
       <c r="N8">
-        <v>1.044218170160747</v>
+        <v>1.007800338885428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033889570986664</v>
+        <v>0.9620047343000524</v>
       </c>
       <c r="D9">
-        <v>1.036454842516318</v>
+        <v>1.017197418576549</v>
       </c>
       <c r="E9">
-        <v>1.03307320336267</v>
+        <v>0.9733960169361379</v>
       </c>
       <c r="F9">
-        <v>1.031324973954534</v>
+        <v>0.9312993746415678</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036353989860937</v>
+        <v>1.033121963543135</v>
       </c>
       <c r="J9">
-        <v>1.039702127940913</v>
+        <v>0.9889744304918381</v>
       </c>
       <c r="K9">
-        <v>1.039615937252812</v>
+        <v>1.030017508187709</v>
       </c>
       <c r="L9">
-        <v>1.036245358380554</v>
+        <v>0.9869359948151607</v>
       </c>
       <c r="M9">
-        <v>1.034502878069634</v>
+        <v>0.9456149409389475</v>
       </c>
       <c r="N9">
-        <v>1.04117862421809</v>
+        <v>0.9903788876200893</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031293568948738</v>
+        <v>0.9454749353863506</v>
       </c>
       <c r="D10">
-        <v>1.035304163780574</v>
+        <v>1.010018606740971</v>
       </c>
       <c r="E10">
-        <v>1.030829265469391</v>
+        <v>0.959611390339164</v>
       </c>
       <c r="F10">
-        <v>1.027738830328581</v>
+        <v>0.9089665291607092</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035737693793637</v>
+        <v>1.028325778464235</v>
       </c>
       <c r="J10">
-        <v>1.037658094114577</v>
+        <v>0.9760323020065887</v>
       </c>
       <c r="K10">
-        <v>1.038752250339361</v>
+        <v>1.024209297933977</v>
       </c>
       <c r="L10">
-        <v>1.034293440768739</v>
+        <v>0.9747502829394287</v>
       </c>
       <c r="M10">
-        <v>1.031214207100559</v>
+        <v>0.9251999763372611</v>
       </c>
       <c r="N10">
-        <v>1.039131687629267</v>
+        <v>0.9774183798279079</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030164640480066</v>
+        <v>0.9378170390365903</v>
       </c>
       <c r="D11">
-        <v>1.034804168773224</v>
+        <v>1.006733715279404</v>
       </c>
       <c r="E11">
-        <v>1.029853612398562</v>
+        <v>0.9532415452136976</v>
       </c>
       <c r="F11">
-        <v>1.026179995581962</v>
+        <v>0.8985512898576697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03546772039527</v>
+        <v>1.026094793593342</v>
       </c>
       <c r="J11">
-        <v>1.036767938143274</v>
+        <v>0.9700267668665657</v>
       </c>
       <c r="K11">
-        <v>1.038375711142508</v>
+        <v>1.02152975112062</v>
       </c>
       <c r="L11">
-        <v>1.033443652199766</v>
+        <v>0.9691026231785171</v>
       </c>
       <c r="M11">
-        <v>1.029783889411774</v>
+        <v>0.9156785107152884</v>
       </c>
       <c r="N11">
-        <v>1.038240267534382</v>
+        <v>0.9714043161391416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029744558046557</v>
+        <v>0.9348859112593367</v>
       </c>
       <c r="D12">
-        <v>1.034618181617205</v>
+        <v>1.005483481468924</v>
       </c>
       <c r="E12">
-        <v>1.029490591909932</v>
+        <v>0.9508062247311697</v>
       </c>
       <c r="F12">
-        <v>1.025600037076963</v>
+        <v>0.8945517274451292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035366967447403</v>
+        <v>1.025239770558227</v>
       </c>
       <c r="J12">
-        <v>1.036436515117447</v>
+        <v>0.9677266633409116</v>
       </c>
       <c r="K12">
-        <v>1.038235458586449</v>
+        <v>1.020506375301163</v>
       </c>
       <c r="L12">
-        <v>1.033127296956842</v>
+        <v>0.966940747107997</v>
       </c>
       <c r="M12">
-        <v>1.029251626922211</v>
+        <v>0.9120223572735784</v>
       </c>
       <c r="N12">
-        <v>1.037908373849844</v>
+        <v>0.9691009462026554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029834701343153</v>
+        <v>0.9355187826068999</v>
       </c>
       <c r="D13">
-        <v>1.034658088642514</v>
+        <v>1.005753088289008</v>
       </c>
       <c r="E13">
-        <v>1.029568489339052</v>
+        <v>0.9513319122512544</v>
       </c>
       <c r="F13">
-        <v>1.025724483149822</v>
+        <v>0.8954159266047004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035388600774868</v>
+        <v>1.025424426613263</v>
       </c>
       <c r="J13">
-        <v>1.036507642027415</v>
+        <v>0.9682233518670174</v>
       </c>
       <c r="K13">
-        <v>1.038265560925488</v>
+        <v>1.02072722550014</v>
       </c>
       <c r="L13">
-        <v>1.033195188426914</v>
+        <v>0.9674075318240606</v>
       </c>
       <c r="M13">
-        <v>1.029365843846595</v>
+        <v>0.9128123408503112</v>
       </c>
       <c r="N13">
-        <v>1.037979601768182</v>
+        <v>0.9695983400834391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030129931717058</v>
+        <v>0.9375765945457292</v>
       </c>
       <c r="D14">
-        <v>1.034788800486586</v>
+        <v>1.006631007729649</v>
       </c>
       <c r="E14">
-        <v>1.029823617745968</v>
+        <v>0.9530417138264968</v>
       </c>
       <c r="F14">
-        <v>1.026132075366518</v>
+        <v>0.898223481397422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035459401800046</v>
+        <v>1.026024675321385</v>
       </c>
       <c r="J14">
-        <v>1.036740558611907</v>
+        <v>0.9698381149523649</v>
       </c>
       <c r="K14">
-        <v>1.038364125789686</v>
+        <v>1.021445753363251</v>
       </c>
       <c r="L14">
-        <v>1.033417516668136</v>
+        <v>0.9689252842142538</v>
       </c>
       <c r="M14">
-        <v>1.029739912583216</v>
+        <v>0.9153788426581358</v>
       </c>
       <c r="N14">
-        <v>1.03821284912094</v>
+        <v>0.9712153963175841</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030311733137592</v>
+        <v>0.9388326107585437</v>
       </c>
       <c r="D15">
-        <v>1.034869300875769</v>
+        <v>1.007167816523247</v>
       </c>
       <c r="E15">
-        <v>1.029980728188717</v>
+        <v>0.9540856935461177</v>
       </c>
       <c r="F15">
-        <v>1.026383081056238</v>
+        <v>0.8999353180766875</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035502961843094</v>
+        <v>1.026390911388395</v>
       </c>
       <c r="J15">
-        <v>1.036883962411224</v>
+        <v>0.9708235231668643</v>
       </c>
       <c r="K15">
-        <v>1.038424803141728</v>
+        <v>1.021884628935827</v>
       </c>
       <c r="L15">
-        <v>1.033554406424073</v>
+        <v>0.9698516479703136</v>
       </c>
       <c r="M15">
-        <v>1.029970258007056</v>
+        <v>0.9169437379532209</v>
       </c>
       <c r="N15">
-        <v>1.0383564565701</v>
+        <v>0.9722022039247755</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031368388435523</v>
+        <v>0.945971701751107</v>
       </c>
       <c r="D16">
-        <v>1.035337309660593</v>
+        <v>1.010232609761004</v>
       </c>
       <c r="E16">
-        <v>1.030893930389274</v>
+        <v>0.9600249621197892</v>
       </c>
       <c r="F16">
-        <v>1.027842155454975</v>
+        <v>0.909640544054019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035755545015796</v>
+        <v>1.02847033817598</v>
       </c>
       <c r="J16">
-        <v>1.037717062457675</v>
+        <v>0.9764216833833937</v>
       </c>
       <c r="K16">
-        <v>1.038777185709685</v>
+        <v>1.024383394392366</v>
       </c>
       <c r="L16">
-        <v>1.034349740297815</v>
+        <v>0.9751166115997558</v>
       </c>
       <c r="M16">
-        <v>1.031308997081782</v>
+        <v>0.9258161602190015</v>
       </c>
       <c r="N16">
-        <v>1.039190739714176</v>
+        <v>0.9778083141709304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032029889464308</v>
+        <v>0.9503085811162072</v>
       </c>
       <c r="D17">
-        <v>1.035630409053713</v>
+        <v>1.012105553193334</v>
       </c>
       <c r="E17">
-        <v>1.031465671946371</v>
+        <v>0.9636373819403167</v>
       </c>
       <c r="F17">
-        <v>1.028755760578278</v>
+        <v>0.9155169225755618</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03591314672099</v>
+        <v>1.029731398913261</v>
       </c>
       <c r="J17">
-        <v>1.038238273322384</v>
+        <v>0.9798199893690481</v>
       </c>
       <c r="K17">
-        <v>1.038997537909056</v>
+        <v>1.025904606030817</v>
       </c>
       <c r="L17">
-        <v>1.034847391021126</v>
+        <v>0.9783145036111043</v>
       </c>
       <c r="M17">
-        <v>1.03214704314494</v>
+        <v>0.9311882940419297</v>
       </c>
       <c r="N17">
-        <v>1.039712690758097</v>
+        <v>0.9812114461408757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032415266002591</v>
+        <v>0.9527908244663731</v>
       </c>
       <c r="D18">
-        <v>1.035801201076208</v>
+        <v>1.013181265327087</v>
       </c>
       <c r="E18">
-        <v>1.031798773043272</v>
+        <v>0.9657064576409468</v>
       </c>
       <c r="F18">
-        <v>1.029288073401217</v>
+        <v>0.9188741276119271</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036004773105245</v>
+        <v>1.030452322682982</v>
       </c>
       <c r="J18">
-        <v>1.038541798209282</v>
+        <v>0.9817641312790109</v>
       </c>
       <c r="K18">
-        <v>1.039125819239377</v>
+        <v>1.026776286820348</v>
       </c>
       <c r="L18">
-        <v>1.035137219942997</v>
+        <v>0.9801446170024709</v>
       </c>
       <c r="M18">
-        <v>1.032635255426033</v>
+        <v>0.9342573394602295</v>
       </c>
       <c r="N18">
-        <v>1.040016646685148</v>
+        <v>0.9831583489553469</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032546591051259</v>
+        <v>0.9536294754516718</v>
       </c>
       <c r="D19">
-        <v>1.035859408408075</v>
+        <v>1.013545311511953</v>
       </c>
       <c r="E19">
-        <v>1.031912286920932</v>
+        <v>0.9664057578917636</v>
       </c>
       <c r="F19">
-        <v>1.029469481394462</v>
+        <v>0.920007412375918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03603596459801</v>
+        <v>1.030695742342352</v>
       </c>
       <c r="J19">
-        <v>1.038645209985174</v>
+        <v>0.9824208251927936</v>
       </c>
       <c r="K19">
-        <v>1.039169518216394</v>
+        <v>1.027070948731382</v>
       </c>
       <c r="L19">
-        <v>1.03523596955594</v>
+        <v>0.9807628972279206</v>
       </c>
       <c r="M19">
-        <v>1.032801621405975</v>
+        <v>0.9352933296022544</v>
       </c>
       <c r="N19">
-        <v>1.040120205317623</v>
+        <v>0.9838159754498113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031958964994772</v>
+        <v>0.9498482509187212</v>
       </c>
       <c r="D20">
-        <v>1.035598979663467</v>
+        <v>1.011906359359844</v>
       </c>
       <c r="E20">
-        <v>1.031404369541676</v>
+        <v>0.9632537915462368</v>
       </c>
       <c r="F20">
-        <v>1.028657799388061</v>
+        <v>0.9148938456803561</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03589626861915</v>
+        <v>1.029597633099074</v>
       </c>
       <c r="J20">
-        <v>1.038182402988282</v>
+        <v>0.9794593761220091</v>
       </c>
       <c r="K20">
-        <v>1.038973921723422</v>
+        <v>1.025743031540285</v>
       </c>
       <c r="L20">
-        <v>1.034794043671936</v>
+        <v>0.9779750913003284</v>
       </c>
       <c r="M20">
-        <v>1.032057191626255</v>
+        <v>0.9306186893668473</v>
       </c>
       <c r="N20">
-        <v>1.039656741081711</v>
+        <v>0.9808503207816629</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030043014549492</v>
+        <v>0.9369731176008179</v>
       </c>
       <c r="D21">
-        <v>1.034750316508995</v>
+        <v>1.006373345429015</v>
       </c>
       <c r="E21">
-        <v>1.029748506024403</v>
+        <v>0.9525402153200532</v>
       </c>
       <c r="F21">
-        <v>1.026012075789567</v>
+        <v>0.8974005155963268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035438565755892</v>
+        <v>1.025848673173636</v>
       </c>
       <c r="J21">
-        <v>1.036671992136821</v>
+        <v>0.9693646061667497</v>
       </c>
       <c r="K21">
-        <v>1.038335111676099</v>
+        <v>1.021234970534491</v>
       </c>
       <c r="L21">
-        <v>1.033352066155473</v>
+        <v>0.9684801895994524</v>
       </c>
       <c r="M21">
-        <v>1.029629785943817</v>
+        <v>0.9146265277340543</v>
       </c>
       <c r="N21">
-        <v>1.038144185273594</v>
+        <v>0.9707412150951809</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02883404156505</v>
+        <v>0.9283688771266776</v>
       </c>
       <c r="D22">
-        <v>1.034215182532386</v>
+        <v>1.002718073051236</v>
       </c>
       <c r="E22">
-        <v>1.028703806312501</v>
+        <v>0.9453971915867931</v>
       </c>
       <c r="F22">
-        <v>1.024343160501747</v>
+        <v>0.8856312957589889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035148051702283</v>
+        <v>1.023337022286539</v>
       </c>
       <c r="J22">
-        <v>1.035717818612393</v>
+        <v>0.9626100094659189</v>
       </c>
       <c r="K22">
-        <v>1.037931212521029</v>
+        <v>1.018235876005796</v>
       </c>
       <c r="L22">
-        <v>1.03244134550139</v>
+        <v>0.9621339118834715</v>
       </c>
       <c r="M22">
-        <v>1.028097900289511</v>
+        <v>0.9038685991276603</v>
       </c>
       <c r="N22">
-        <v>1.037188656713317</v>
+        <v>0.9639770260922721</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029475359251782</v>
+        <v>0.9329829910949474</v>
       </c>
       <c r="D23">
-        <v>1.034499015326755</v>
+        <v>1.004673947871999</v>
       </c>
       <c r="E23">
-        <v>1.029257967525048</v>
+        <v>0.9492260255585268</v>
       </c>
       <c r="F23">
-        <v>1.02522841183929</v>
+        <v>0.8919510891347432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03530231995998</v>
+        <v>1.0246844080268</v>
       </c>
       <c r="J23">
-        <v>1.036224078029021</v>
+        <v>0.9662330100384225</v>
       </c>
       <c r="K23">
-        <v>1.038145542430186</v>
+        <v>1.019842698903494</v>
       </c>
       <c r="L23">
-        <v>1.032924528883705</v>
+        <v>0.9655372033028758</v>
       </c>
       <c r="M23">
-        <v>1.028910531032759</v>
+        <v>0.9096451110407128</v>
       </c>
       <c r="N23">
-        <v>1.037695635076385</v>
+        <v>0.9676051717411525</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031991014148539</v>
+        <v>0.9500563999143699</v>
       </c>
       <c r="D24">
-        <v>1.035613181770956</v>
+        <v>1.011996417961762</v>
       </c>
       <c r="E24">
-        <v>1.031432070652281</v>
+        <v>0.9634272362659695</v>
       </c>
       <c r="F24">
-        <v>1.028702065616792</v>
+        <v>0.9151756034423821</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035903896033857</v>
+        <v>1.029658121096628</v>
       </c>
       <c r="J24">
-        <v>1.038207649896699</v>
+        <v>0.979622438594429</v>
       </c>
       <c r="K24">
-        <v>1.038984593622483</v>
+        <v>1.025816088111169</v>
       </c>
       <c r="L24">
-        <v>1.034818150409164</v>
+        <v>0.9781285651684137</v>
       </c>
       <c r="M24">
-        <v>1.032097793530805</v>
+        <v>0.9308762670618176</v>
       </c>
       <c r="N24">
-        <v>1.039682023843634</v>
+        <v>0.9810136148214975</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034892089131911</v>
+        <v>0.9680318173367859</v>
       </c>
       <c r="D25">
-        <v>1.036899539928347</v>
+        <v>1.019843784301868</v>
       </c>
       <c r="E25">
-        <v>1.033939907916896</v>
+        <v>0.978433777696779</v>
       </c>
       <c r="F25">
-        <v>1.032710509185649</v>
+        <v>0.9393986579728476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036590239603518</v>
+        <v>1.034861857785789</v>
       </c>
       <c r="J25">
-        <v>1.040490365953922</v>
+        <v>0.9936851034974872</v>
       </c>
       <c r="K25">
-        <v>1.039948617675215</v>
+        <v>1.032141667565477</v>
       </c>
       <c r="L25">
-        <v>1.036998294438557</v>
+        <v>0.9913763691135249</v>
       </c>
       <c r="M25">
-        <v>1.035772779620571</v>
+        <v>0.9530167095634066</v>
       </c>
       <c r="N25">
-        <v>1.041967981619489</v>
+        <v>0.9950962503217281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9812041114461419</v>
+        <v>0.9912425638766884</v>
       </c>
       <c r="D2">
-        <v>1.025678351546401</v>
+        <v>1.041190181146447</v>
       </c>
       <c r="E2">
-        <v>0.9894648195035637</v>
+        <v>1.012260925009586</v>
       </c>
       <c r="F2">
-        <v>0.9570328372298811</v>
+        <v>1.032209880405224</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038642092487641</v>
+        <v>1.057426865843514</v>
       </c>
       <c r="J2">
-        <v>1.003961915603083</v>
+        <v>1.013688401082594</v>
       </c>
       <c r="K2">
-        <v>1.036791172162284</v>
+        <v>1.052104015251867</v>
       </c>
       <c r="L2">
-        <v>1.001072903906227</v>
+        <v>1.023552048063973</v>
       </c>
       <c r="M2">
-        <v>0.9691251040673248</v>
+        <v>1.043238002699951</v>
       </c>
       <c r="N2">
-        <v>1.00538765667928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007820590653768</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042792365800074</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047912272440512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.990210595068453</v>
+        <v>0.9972039652914516</v>
       </c>
       <c r="D3">
-        <v>1.029706068736737</v>
+        <v>1.043874312240765</v>
       </c>
       <c r="E3">
-        <v>0.9970233540011889</v>
+        <v>1.016823079982395</v>
       </c>
       <c r="F3">
-        <v>0.9690459079283305</v>
+        <v>1.035974833439455</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041204896875877</v>
+        <v>1.058304760946779</v>
       </c>
       <c r="J3">
-        <v>1.010971733916842</v>
+        <v>1.017771144338314</v>
       </c>
       <c r="K3">
-        <v>1.0399724562635</v>
+        <v>1.053974980127777</v>
       </c>
       <c r="L3">
-        <v>1.007694463787728</v>
+        <v>1.027245137978583</v>
       </c>
       <c r="M3">
-        <v>0.9800907961327986</v>
+        <v>1.046167206212216</v>
       </c>
       <c r="N3">
-        <v>1.012407429739083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009257105767588</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045110622953833</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049232543846435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.995811438673453</v>
+        <v>1.000968802873493</v>
       </c>
       <c r="D4">
-        <v>1.032225704416585</v>
+        <v>1.04556987646103</v>
       </c>
       <c r="E4">
-        <v>1.001730208352878</v>
+        <v>1.01971018548615</v>
       </c>
       <c r="F4">
-        <v>0.9765018338473147</v>
+        <v>1.038356848939002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04278767704636</v>
+        <v>1.05884296601583</v>
       </c>
       <c r="J4">
-        <v>1.015322898550852</v>
+        <v>1.020347758999081</v>
       </c>
       <c r="K4">
-        <v>1.041950149455056</v>
+        <v>1.0551477457241</v>
       </c>
       <c r="L4">
-        <v>1.011807796043274</v>
+        <v>1.029576406541714</v>
       </c>
       <c r="M4">
-        <v>0.9868923858259445</v>
+        <v>1.048013373170361</v>
       </c>
       <c r="N4">
-        <v>1.016764773525959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010162774196353</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046571729597492</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050062652814754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9981157085349651</v>
+        <v>1.002531628382067</v>
       </c>
       <c r="D5">
-        <v>1.03326553003552</v>
+        <v>1.046275512396981</v>
       </c>
       <c r="E5">
-        <v>1.003668091992143</v>
+        <v>1.020909969730216</v>
       </c>
       <c r="F5">
-        <v>0.9795665351830177</v>
+        <v>1.039345941474382</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043436116019028</v>
+        <v>1.059063439478226</v>
       </c>
       <c r="J5">
-        <v>1.017111075975859</v>
+        <v>1.021417216064641</v>
       </c>
       <c r="K5">
-        <v>1.042763422531206</v>
+        <v>1.055634337196788</v>
       </c>
       <c r="L5">
-        <v>1.013498952672738</v>
+        <v>1.030543971359698</v>
       </c>
       <c r="M5">
-        <v>0.9896870238993206</v>
+        <v>1.048778307821687</v>
       </c>
       <c r="N5">
-        <v>1.018555490368016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010539394900885</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047177118794436</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050413776481584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9984997622221181</v>
+        <v>1.002794324137514</v>
       </c>
       <c r="D6">
-        <v>1.033439016917912</v>
+        <v>1.04639636447676</v>
       </c>
       <c r="E6">
-        <v>1.003991159525634</v>
+        <v>1.021111696706536</v>
       </c>
       <c r="F6">
-        <v>0.9800771863931559</v>
+        <v>1.039511504262253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043544027228466</v>
+        <v>1.059101540150753</v>
       </c>
       <c r="J6">
-        <v>1.017408996269834</v>
+        <v>1.021597389179008</v>
       </c>
       <c r="K6">
-        <v>1.04289894261824</v>
+        <v>1.055718423897933</v>
       </c>
       <c r="L6">
-        <v>1.013780750052682</v>
+        <v>1.030706778426637</v>
       </c>
       <c r="M6">
-        <v>0.9901526092688578</v>
+        <v>1.048906294782017</v>
       </c>
       <c r="N6">
-        <v>1.01885383374298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010603983411084</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047278410958288</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050481854598668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958424212389355</v>
+        <v>1.000993754428044</v>
       </c>
       <c r="D7">
-        <v>1.032239673357917</v>
+        <v>1.045586973588988</v>
       </c>
       <c r="E7">
-        <v>1.001756259149854</v>
+        <v>1.019729233470565</v>
       </c>
       <c r="F7">
-        <v>0.9765430510755642</v>
+        <v>1.038370465153833</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042796406786074</v>
+        <v>1.058849822183532</v>
       </c>
       <c r="J7">
-        <v>1.015346949681923</v>
+        <v>1.020365992585386</v>
       </c>
       <c r="K7">
-        <v>1.041961086283745</v>
+        <v>1.055161830527762</v>
       </c>
       <c r="L7">
-        <v>1.01183053943006</v>
+        <v>1.029592311946157</v>
       </c>
       <c r="M7">
-        <v>0.9869299754386132</v>
+        <v>1.048023986018303</v>
       </c>
       <c r="N7">
-        <v>1.016788858812394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010172344754193</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046580128885042</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.050092448157448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9842974598580467</v>
+        <v>0.9932817473766175</v>
       </c>
       <c r="D8">
-        <v>1.027058290528752</v>
+        <v>1.04211444166848</v>
       </c>
       <c r="E8">
-        <v>0.9920594032194333</v>
+        <v>1.013819826590175</v>
       </c>
       <c r="F8">
-        <v>0.9611624140518897</v>
+        <v>1.033493233626961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039524560153954</v>
+        <v>1.057734100356102</v>
       </c>
       <c r="J8">
-        <v>1.006371176382577</v>
+        <v>1.015086643124961</v>
       </c>
       <c r="K8">
-        <v>1.037883801397075</v>
+        <v>1.052752634696198</v>
       </c>
       <c r="L8">
-        <v>1.003348020219974</v>
+        <v>1.024815797755273</v>
       </c>
       <c r="M8">
-        <v>0.9728954963922068</v>
+        <v>1.044237853349103</v>
       </c>
       <c r="N8">
-        <v>1.007800338885428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008316902843674</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043583677614352</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048393503342456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9620047343000524</v>
+        <v>0.9789281532941111</v>
       </c>
       <c r="D9">
-        <v>1.017197418576549</v>
+        <v>1.03565590057408</v>
       </c>
       <c r="E9">
-        <v>0.9733960169361379</v>
+        <v>1.00287443776295</v>
       </c>
       <c r="F9">
-        <v>0.9312993746415678</v>
+        <v>1.024462553178083</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033121963543135</v>
+        <v>1.055528032046461</v>
       </c>
       <c r="J9">
-        <v>0.9889744304918381</v>
+        <v>1.005247603501029</v>
       </c>
       <c r="K9">
-        <v>1.030017508187709</v>
+        <v>1.048195810952161</v>
       </c>
       <c r="L9">
-        <v>0.9869359948151607</v>
+        <v>1.015921050734663</v>
       </c>
       <c r="M9">
-        <v>0.9456149409389475</v>
+        <v>1.03717082979061</v>
       </c>
       <c r="N9">
-        <v>0.9903788876200893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004846715033151</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037990604488113</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045168460347951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454749353863506</v>
+        <v>0.9688610685274085</v>
       </c>
       <c r="D10">
-        <v>1.010018606740971</v>
+        <v>1.031160372506274</v>
       </c>
       <c r="E10">
-        <v>0.959611390339164</v>
+        <v>0.9952587218549636</v>
       </c>
       <c r="F10">
-        <v>0.9089665291607092</v>
+        <v>1.018210492930682</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028325778464235</v>
+        <v>1.053916172340438</v>
       </c>
       <c r="J10">
-        <v>0.9760323020065887</v>
+        <v>0.998367031372566</v>
       </c>
       <c r="K10">
-        <v>1.024209297933977</v>
+        <v>1.044988921116181</v>
       </c>
       <c r="L10">
-        <v>0.9747502829394287</v>
+        <v>1.009714112485971</v>
       </c>
       <c r="M10">
-        <v>0.9251999763372611</v>
+        <v>1.03225855554432</v>
       </c>
       <c r="N10">
-        <v>0.9774183798279079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.002434488111053</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034154554230428</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.042917664300194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9378170390365903</v>
+        <v>0.9650208424027301</v>
       </c>
       <c r="D11">
-        <v>1.006733715279404</v>
+        <v>1.029545290944425</v>
       </c>
       <c r="E11">
-        <v>0.9532415452136976</v>
+        <v>0.992501338090661</v>
       </c>
       <c r="F11">
-        <v>0.8985512898576697</v>
+        <v>1.016172224751726</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026094793593342</v>
+        <v>1.053375386948542</v>
       </c>
       <c r="J11">
-        <v>0.9700267668665657</v>
+        <v>0.9959248394183216</v>
       </c>
       <c r="K11">
-        <v>1.02152975112062</v>
+        <v>1.043930736806482</v>
       </c>
       <c r="L11">
-        <v>0.9691026231785171</v>
+        <v>1.007566067379607</v>
       </c>
       <c r="M11">
-        <v>0.9156785107152884</v>
+        <v>1.030795467841142</v>
       </c>
       <c r="N11">
-        <v>0.9714043161391416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001728113779412</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.033435442050078</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.042202016469727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9348859112593367</v>
+        <v>0.9637980200209709</v>
       </c>
       <c r="D12">
-        <v>1.005483481468924</v>
+        <v>1.029063580705491</v>
       </c>
       <c r="E12">
-        <v>0.9508062247311697</v>
+        <v>0.9916728562583026</v>
       </c>
       <c r="F12">
-        <v>0.8945517274451292</v>
+        <v>1.015658914469658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025239770558227</v>
+        <v>1.053232667452533</v>
       </c>
       <c r="J12">
-        <v>0.9677266633409116</v>
+        <v>0.9952176630386677</v>
       </c>
       <c r="K12">
-        <v>1.020506375301163</v>
+        <v>1.043654375859506</v>
       </c>
       <c r="L12">
-        <v>0.966940747107997</v>
+        <v>1.006961349187761</v>
       </c>
       <c r="M12">
-        <v>0.9120223572735784</v>
+        <v>1.030492140095865</v>
       </c>
       <c r="N12">
-        <v>0.9691009462026554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001601028170003</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033523691928757</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042006623821295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9355187826068999</v>
+        <v>0.9645322509502892</v>
       </c>
       <c r="D13">
-        <v>1.005753088289008</v>
+        <v>1.029437717878079</v>
       </c>
       <c r="E13">
-        <v>0.9513319122512544</v>
+        <v>0.9922913814953886</v>
       </c>
       <c r="F13">
-        <v>0.8954159266047004</v>
+        <v>1.016302632586574</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025424426613263</v>
+        <v>1.053400342951714</v>
       </c>
       <c r="J13">
-        <v>0.9682233518670174</v>
+        <v>0.9958189650079469</v>
       </c>
       <c r="K13">
-        <v>1.02072722550014</v>
+        <v>1.043979647680974</v>
       </c>
       <c r="L13">
-        <v>0.9674075318240606</v>
+        <v>1.007523235814146</v>
       </c>
       <c r="M13">
-        <v>0.9128123408503112</v>
+        <v>1.031081017315435</v>
       </c>
       <c r="N13">
-        <v>0.9695983400834391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.001921719430914</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034267264980099</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.042234128660083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9375765945457292</v>
+        <v>0.9659264833491009</v>
       </c>
       <c r="D14">
-        <v>1.006631007729649</v>
+        <v>1.030085309618542</v>
       </c>
       <c r="E14">
-        <v>0.9530417138264968</v>
+        <v>0.9933737278957117</v>
       </c>
       <c r="F14">
-        <v>0.898223481397422</v>
+        <v>1.017272162182757</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026024675321385</v>
+        <v>1.0536569753803</v>
       </c>
       <c r="J14">
-        <v>0.9698381149523649</v>
+        <v>0.9968266173796868</v>
       </c>
       <c r="K14">
-        <v>1.021445753363251</v>
+        <v>1.044477576277119</v>
       </c>
       <c r="L14">
-        <v>0.9689252842142538</v>
+        <v>1.008438831823049</v>
       </c>
       <c r="M14">
-        <v>0.9153788426581358</v>
+        <v>1.031892091402186</v>
       </c>
       <c r="N14">
-        <v>0.9712153963175841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.002346885693863</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035082376673083</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.042587585114299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9388326107585437</v>
+        <v>0.9666962397110593</v>
       </c>
       <c r="D15">
-        <v>1.007167816523247</v>
+        <v>1.030434719092298</v>
       </c>
       <c r="E15">
-        <v>0.9540856935461177</v>
+        <v>0.9939592712163402</v>
       </c>
       <c r="F15">
-        <v>0.8999353180766875</v>
+        <v>1.017769843522528</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026390911388395</v>
+        <v>1.053789804002443</v>
       </c>
       <c r="J15">
-        <v>0.9708235231668643</v>
+        <v>0.9973633304393206</v>
       </c>
       <c r="K15">
-        <v>1.021884628935827</v>
+        <v>1.044735761549503</v>
       </c>
       <c r="L15">
-        <v>0.9698516479703136</v>
+        <v>1.008923446322611</v>
       </c>
       <c r="M15">
-        <v>0.9169437379532209</v>
+        <v>1.032294139930018</v>
       </c>
       <c r="N15">
-        <v>0.9722022039247755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.002551170512063</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035437812875176</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042775940539967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.945971701751107</v>
+        <v>0.970859078237595</v>
       </c>
       <c r="D16">
-        <v>1.010232609761004</v>
+        <v>1.032291392625177</v>
       </c>
       <c r="E16">
-        <v>0.9600249621197892</v>
+        <v>0.9970972530699392</v>
       </c>
       <c r="F16">
-        <v>0.909640544054019</v>
+        <v>1.020340983786872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02847033817598</v>
+        <v>1.054470163545957</v>
       </c>
       <c r="J16">
-        <v>0.9764216833833937</v>
+        <v>1.000197898639479</v>
       </c>
       <c r="K16">
-        <v>1.024383394392366</v>
+        <v>1.046066065955192</v>
       </c>
       <c r="L16">
-        <v>0.9751166115997558</v>
+        <v>1.011482283536473</v>
       </c>
       <c r="M16">
-        <v>0.9258161602190015</v>
+        <v>1.034316808709746</v>
       </c>
       <c r="N16">
-        <v>0.9778083141709304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.003522167869279</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036997693725886</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.043719627195946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9503085811162072</v>
+        <v>0.9733158251773258</v>
       </c>
       <c r="D17">
-        <v>1.012105553193334</v>
+        <v>1.033373589095921</v>
       </c>
       <c r="E17">
-        <v>0.9636373819403167</v>
+        <v>0.9989338444595832</v>
       </c>
       <c r="F17">
-        <v>0.9155169225755618</v>
+        <v>1.021797895287656</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029731398913261</v>
+        <v>1.054852366753074</v>
       </c>
       <c r="J17">
-        <v>0.9798199893690481</v>
+        <v>1.001839517828113</v>
       </c>
       <c r="K17">
-        <v>1.025904606030817</v>
+        <v>1.046820712220934</v>
       </c>
       <c r="L17">
-        <v>0.9783145036111043</v>
+        <v>1.012960593103763</v>
       </c>
       <c r="M17">
-        <v>0.9311882940419297</v>
+        <v>1.035434226326528</v>
       </c>
       <c r="N17">
-        <v>0.9812114461408757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.004042723354788</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037751562307961</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044255737895527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9527908244663731</v>
+        <v>0.9745341449063417</v>
       </c>
       <c r="D18">
-        <v>1.013181265327087</v>
+        <v>1.033878500797294</v>
       </c>
       <c r="E18">
-        <v>0.9657064576409468</v>
+        <v>0.9998069832053623</v>
       </c>
       <c r="F18">
-        <v>0.9188741276119271</v>
+        <v>1.022406264834544</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030452322682982</v>
+        <v>1.055010283032831</v>
       </c>
       <c r="J18">
-        <v>0.9817641312790109</v>
+        <v>1.002594985478071</v>
       </c>
       <c r="K18">
-        <v>1.026776286820348</v>
+        <v>1.047136994015895</v>
       </c>
       <c r="L18">
-        <v>0.9801446170024709</v>
+        <v>1.013629049202506</v>
       </c>
       <c r="M18">
-        <v>0.9342573394602295</v>
+        <v>1.035849129167799</v>
       </c>
       <c r="N18">
-        <v>0.9831583489553469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004215340761435</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037841237033901</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044467842102771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9536294754516718</v>
+        <v>0.9746062497442965</v>
       </c>
       <c r="D19">
-        <v>1.013545311511953</v>
+        <v>1.033850054156139</v>
       </c>
       <c r="E19">
-        <v>0.9664057578917636</v>
+        <v>0.9997748023851553</v>
       </c>
       <c r="F19">
-        <v>0.920007412375918</v>
+        <v>1.022210648702553</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030695742342352</v>
+        <v>1.054962318564056</v>
       </c>
       <c r="J19">
-        <v>0.9824208251927936</v>
+        <v>1.002523693716714</v>
       </c>
       <c r="K19">
-        <v>1.027070948731382</v>
+        <v>1.047047445763584</v>
       </c>
       <c r="L19">
-        <v>0.9807628972279206</v>
+        <v>1.013532859857646</v>
       </c>
       <c r="M19">
-        <v>0.9352933296022544</v>
+        <v>1.035594154091346</v>
       </c>
       <c r="N19">
-        <v>0.9838159754498113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004077900625825</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037313175291515</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044410855915546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9498482509187212</v>
+        <v>0.9714940311330855</v>
       </c>
       <c r="D20">
-        <v>1.011906359359844</v>
+        <v>1.032342479318866</v>
       </c>
       <c r="E20">
-        <v>0.9632537915462368</v>
+        <v>0.9972460188344914</v>
       </c>
       <c r="F20">
-        <v>0.9148938456803561</v>
+        <v>1.019833142434603</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029597633099074</v>
+        <v>1.054348080139163</v>
       </c>
       <c r="J20">
-        <v>0.9794593761220091</v>
+        <v>1.000169826289881</v>
       </c>
       <c r="K20">
-        <v>1.025743031540285</v>
+        <v>1.045839505293861</v>
       </c>
       <c r="L20">
-        <v>0.9779750913003284</v>
+        <v>1.011337467156093</v>
       </c>
       <c r="M20">
-        <v>0.9306186893668473</v>
+        <v>1.03353599000276</v>
       </c>
       <c r="N20">
-        <v>0.9808503207816629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.003077109798311</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035154910338174</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043560694448238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9369731176008179</v>
+        <v>0.9637314379781354</v>
       </c>
       <c r="D21">
-        <v>1.006373345429015</v>
+        <v>1.028865879228104</v>
       </c>
       <c r="E21">
-        <v>0.9525402153200532</v>
+        <v>0.9913628428496631</v>
       </c>
       <c r="F21">
-        <v>0.8974005155963268</v>
+        <v>1.014961956276656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025848673173636</v>
+        <v>1.053061019708688</v>
       </c>
       <c r="J21">
-        <v>0.9693646061667497</v>
+        <v>0.9948278889928552</v>
       </c>
       <c r="K21">
-        <v>1.021234970534491</v>
+        <v>1.043320265695812</v>
       </c>
       <c r="L21">
-        <v>0.9684801895994524</v>
+        <v>1.006509717458665</v>
       </c>
       <c r="M21">
-        <v>0.9146265277340543</v>
+        <v>1.029665307856145</v>
       </c>
       <c r="N21">
-        <v>0.9707412150951809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.001175331504452</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032050441450746</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041782735148679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9283688771266776</v>
+        <v>0.95874161253489</v>
       </c>
       <c r="D22">
-        <v>1.002718073051236</v>
+        <v>1.026644357679986</v>
       </c>
       <c r="E22">
-        <v>0.9453971915867931</v>
+        <v>0.9876032565904819</v>
       </c>
       <c r="F22">
-        <v>0.8856312957589889</v>
+        <v>1.011871078477423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023337022286539</v>
+        <v>1.052224707754042</v>
       </c>
       <c r="J22">
-        <v>0.9626100094659189</v>
+        <v>0.9914059027662239</v>
       </c>
       <c r="K22">
-        <v>1.018235876005796</v>
+        <v>1.041705840281175</v>
       </c>
       <c r="L22">
-        <v>0.9621339118834715</v>
+        <v>1.003424361548754</v>
       </c>
       <c r="M22">
-        <v>0.9038685991276603</v>
+        <v>1.027210978972706</v>
       </c>
       <c r="N22">
-        <v>0.9639770260922721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9999608603765129</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.030107978865599</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040627907878472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9329829910949474</v>
+        <v>0.961398852420126</v>
       </c>
       <c r="D23">
-        <v>1.004673947871999</v>
+        <v>1.027824224282885</v>
       </c>
       <c r="E23">
-        <v>0.9492260255585268</v>
+        <v>0.9896050152454569</v>
       </c>
       <c r="F23">
-        <v>0.8919510891347432</v>
+        <v>1.01352055800566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0246844080268</v>
+        <v>1.052670018513928</v>
       </c>
       <c r="J23">
-        <v>0.9662330100384225</v>
+        <v>0.9932273852447593</v>
       </c>
       <c r="K23">
-        <v>1.019842698903494</v>
+        <v>1.042563389311409</v>
       </c>
       <c r="L23">
-        <v>0.9655372033028758</v>
+        <v>1.005067590449459</v>
       </c>
       <c r="M23">
-        <v>0.9096451110407128</v>
+        <v>1.028522123888542</v>
       </c>
       <c r="N23">
-        <v>0.9676051717411525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000603677359478</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.031145676630708</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041224671174598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9500563999143699</v>
+        <v>0.9715494084807246</v>
       </c>
       <c r="D24">
-        <v>1.011996417961762</v>
+        <v>1.032353421221519</v>
       </c>
       <c r="E24">
-        <v>0.9634272362659695</v>
+        <v>0.9972746383593309</v>
       </c>
       <c r="F24">
-        <v>0.9151756034423821</v>
+        <v>1.019839263699894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029658121096628</v>
+        <v>1.054345527555906</v>
       </c>
       <c r="J24">
-        <v>0.979622438594429</v>
+        <v>1.000188403751497</v>
       </c>
       <c r="K24">
-        <v>1.025816088111169</v>
+        <v>1.045835236963482</v>
       </c>
       <c r="L24">
-        <v>0.9781285651684137</v>
+        <v>1.011349784040003</v>
       </c>
       <c r="M24">
-        <v>0.9308762670618176</v>
+        <v>1.033526712475747</v>
       </c>
       <c r="N24">
-        <v>0.9810136148214975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00306510179299</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03510651403404</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043530551258629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9680318173367859</v>
+        <v>0.9827414915421858</v>
       </c>
       <c r="D25">
-        <v>1.019843784301868</v>
+        <v>1.037375347322924</v>
       </c>
       <c r="E25">
-        <v>0.978433777696779</v>
+        <v>1.005774624238995</v>
       </c>
       <c r="F25">
-        <v>0.9393986579728476</v>
+        <v>1.026849909183138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034861857785789</v>
+        <v>1.056131548300628</v>
       </c>
       <c r="J25">
-        <v>0.9936851034974872</v>
+        <v>1.007863967402517</v>
       </c>
       <c r="K25">
-        <v>1.032141667565477</v>
+        <v>1.049419898190275</v>
       </c>
       <c r="L25">
-        <v>0.9913763691135249</v>
+        <v>1.018283953155765</v>
       </c>
       <c r="M25">
-        <v>0.9530167095634066</v>
+        <v>1.039045237773135</v>
       </c>
       <c r="N25">
-        <v>0.9950962503217281</v>
+        <v>1.005775858843477</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039474076381316</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046062204432293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,61 +424,76 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912425638766884</v>
+        <v>0.9918214192129367</v>
       </c>
       <c r="D2">
-        <v>1.041190181146447</v>
+        <v>1.038491775608609</v>
       </c>
       <c r="E2">
-        <v>1.012260925009586</v>
+        <v>1.012345243610353</v>
       </c>
       <c r="F2">
-        <v>1.032209880405224</v>
+        <v>1.031310409464418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057426865843514</v>
+        <v>1.056056226549914</v>
       </c>
       <c r="J2">
-        <v>1.013688401082594</v>
+        <v>1.014249532638059</v>
       </c>
       <c r="K2">
-        <v>1.052104015251867</v>
+        <v>1.049439691751087</v>
       </c>
       <c r="L2">
-        <v>1.023552048063973</v>
+        <v>1.023635227610714</v>
       </c>
       <c r="M2">
-        <v>1.043238002699951</v>
+        <v>1.042350116068025</v>
       </c>
       <c r="N2">
-        <v>1.007820590653768</v>
+        <v>1.010417237283749</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042792365800074</v>
+        <v>1.042089664947511</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047912272440512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046037079289094</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025197167152389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9972039652914516</v>
+        <v>0.9975141923411638</v>
       </c>
       <c r="D3">
-        <v>1.043874312240765</v>
+        <v>1.040908933683165</v>
       </c>
       <c r="E3">
-        <v>1.016823079982395</v>
+        <v>1.016680884743875</v>
       </c>
       <c r="F3">
-        <v>1.035974833439455</v>
+        <v>1.034861942772601</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058304760946779</v>
+        <v>1.056796998227366</v>
       </c>
       <c r="J3">
-        <v>1.017771144338314</v>
+        <v>1.018072853133715</v>
       </c>
       <c r="K3">
-        <v>1.053974980127777</v>
+        <v>1.051043824933483</v>
       </c>
       <c r="L3">
-        <v>1.027245137978583</v>
+        <v>1.02710468832127</v>
       </c>
       <c r="M3">
-        <v>1.046167206212216</v>
+        <v>1.045067374314185</v>
       </c>
       <c r="N3">
-        <v>1.009257105767588</v>
+        <v>1.011493822965542</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045110622953833</v>
+        <v>1.044240184752117</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049232543846435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047168406327264</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02552097816167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000968802873493</v>
+        <v>1.001112577372621</v>
       </c>
       <c r="D4">
-        <v>1.04556987646103</v>
+        <v>1.042437448362534</v>
       </c>
       <c r="E4">
-        <v>1.01971018548615</v>
+        <v>1.019427195388535</v>
       </c>
       <c r="F4">
-        <v>1.038356848939002</v>
+        <v>1.037110920341171</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05884296601583</v>
+        <v>1.057249212324728</v>
       </c>
       <c r="J4">
-        <v>1.020347758999081</v>
+        <v>1.020487866061594</v>
       </c>
       <c r="K4">
-        <v>1.0551477457241</v>
+        <v>1.052049311307957</v>
       </c>
       <c r="L4">
-        <v>1.029576406541714</v>
+        <v>1.029296671850177</v>
       </c>
       <c r="M4">
-        <v>1.048013373170361</v>
+        <v>1.0467811670595</v>
       </c>
       <c r="N4">
-        <v>1.010162774196353</v>
+        <v>1.01217316694927</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046571729597492</v>
+        <v>1.045596528556415</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050062652814754</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047880322026543</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025720702967412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002531628382067</v>
+        <v>1.002607093443968</v>
       </c>
       <c r="D5">
-        <v>1.046275512396981</v>
+        <v>1.043074555855195</v>
       </c>
       <c r="E5">
-        <v>1.020909969730216</v>
+        <v>1.020569221335146</v>
       </c>
       <c r="F5">
-        <v>1.039345941474382</v>
+        <v>1.038045639490372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059063439478226</v>
+        <v>1.057434361849804</v>
       </c>
       <c r="J5">
-        <v>1.021417216064641</v>
+        <v>1.021490816385476</v>
       </c>
       <c r="K5">
-        <v>1.055634337196788</v>
+        <v>1.052467202895788</v>
       </c>
       <c r="L5">
-        <v>1.030543971359698</v>
+        <v>1.030207034129008</v>
       </c>
       <c r="M5">
-        <v>1.048778307821687</v>
+        <v>1.047491939601947</v>
       </c>
       <c r="N5">
-        <v>1.010539394900885</v>
+        <v>1.01245576974397</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047177118794436</v>
+        <v>1.046159053211725</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050413776481584</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.048183587534071</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025803088403147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002794324137514</v>
+        <v>1.002858441131253</v>
       </c>
       <c r="D6">
-        <v>1.04639636447676</v>
+        <v>1.043184460315923</v>
       </c>
       <c r="E6">
-        <v>1.021111696706536</v>
+        <v>1.020761490444197</v>
       </c>
       <c r="F6">
-        <v>1.039511504262253</v>
+        <v>1.038202645694205</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059101540150753</v>
+        <v>1.057466813469451</v>
       </c>
       <c r="J6">
-        <v>1.021597389179008</v>
+        <v>1.021659930363665</v>
       </c>
       <c r="K6">
-        <v>1.055718423897933</v>
+        <v>1.052540303918672</v>
       </c>
       <c r="L6">
-        <v>1.030706778426637</v>
+        <v>1.030360470464216</v>
       </c>
       <c r="M6">
-        <v>1.048906294782017</v>
+        <v>1.047611396503354</v>
       </c>
       <c r="N6">
-        <v>1.010603983411084</v>
+        <v>1.012504200472726</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047278410958288</v>
+        <v>1.046253594599095</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050481854598668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.048244773705858</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025817657659382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000993754428044</v>
+        <v>1.001155551969909</v>
       </c>
       <c r="D7">
-        <v>1.045586973588988</v>
+        <v>1.042459791149668</v>
       </c>
       <c r="E7">
-        <v>1.019729233470565</v>
+        <v>1.019461605004192</v>
       </c>
       <c r="F7">
-        <v>1.038370465153833</v>
+        <v>1.037135744236134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I7">
-        <v>1.058849822183532</v>
+        <v>1.057258731041007</v>
       </c>
       <c r="J7">
-        <v>1.020365992585386</v>
+        <v>1.020523664843444</v>
       </c>
       <c r="K7">
-        <v>1.055161830527762</v>
+        <v>1.052068571997644</v>
       </c>
       <c r="L7">
-        <v>1.029592311946157</v>
+        <v>1.029327760943054</v>
       </c>
       <c r="M7">
-        <v>1.048023986018303</v>
+        <v>1.04680285900379</v>
       </c>
       <c r="N7">
-        <v>1.010172344754193</v>
+        <v>1.012212835510867</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046580128885042</v>
+        <v>1.045613696155449</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.050092448157448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047915790890277</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025725304931811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9932817473766175</v>
+        <v>0.993827144414258</v>
       </c>
       <c r="D8">
-        <v>1.04211444166848</v>
+        <v>1.039341815055929</v>
       </c>
       <c r="E8">
-        <v>1.013819826590175</v>
+        <v>1.013876171897226</v>
       </c>
       <c r="F8">
-        <v>1.033493233626961</v>
+        <v>1.032555776761457</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057734100356102</v>
+        <v>1.056325284258911</v>
       </c>
       <c r="J8">
-        <v>1.015086643124961</v>
+        <v>1.015615936077341</v>
       </c>
       <c r="K8">
-        <v>1.052752634696198</v>
+        <v>1.050013995839078</v>
       </c>
       <c r="L8">
-        <v>1.024815797755273</v>
+        <v>1.024871405735173</v>
       </c>
       <c r="M8">
-        <v>1.044237853349103</v>
+        <v>1.043312102676723</v>
       </c>
       <c r="N8">
-        <v>1.008316902843674</v>
+        <v>1.010888899738772</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043583677614352</v>
+        <v>1.042851010775332</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048393503342456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046468046781013</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025314984864373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9789281532941111</v>
+        <v>0.9801516002650611</v>
       </c>
       <c r="D9">
-        <v>1.03565590057408</v>
+        <v>1.033536947612764</v>
       </c>
       <c r="E9">
-        <v>1.00287443776295</v>
+        <v>1.003499395580291</v>
       </c>
       <c r="F9">
-        <v>1.024462553178083</v>
+        <v>1.024055140675561</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.055528032046461</v>
+        <v>1.054453803642368</v>
       </c>
       <c r="J9">
-        <v>1.005247603501029</v>
+        <v>1.006425266058212</v>
       </c>
       <c r="K9">
-        <v>1.048195810952161</v>
+        <v>1.046108374583208</v>
       </c>
       <c r="L9">
-        <v>1.015921050734663</v>
+        <v>1.016535951532718</v>
       </c>
       <c r="M9">
-        <v>1.03717082979061</v>
+        <v>1.036769633961674</v>
       </c>
       <c r="N9">
-        <v>1.004846715033151</v>
+        <v>1.00830618530345</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037990604488113</v>
+        <v>1.037673083707813</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045168460347951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043703154961649</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024507671783986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9688610685274085</v>
+        <v>0.9706720729577571</v>
       </c>
       <c r="D10">
-        <v>1.031160372506274</v>
+        <v>1.029536690256069</v>
       </c>
       <c r="E10">
-        <v>0.9952587218549636</v>
+        <v>0.9963753368438878</v>
       </c>
       <c r="F10">
-        <v>1.018210492930682</v>
+        <v>1.01824469917194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053916172340438</v>
+        <v>1.053094235763392</v>
       </c>
       <c r="J10">
-        <v>0.998367031372566</v>
+        <v>1.000099628283535</v>
       </c>
       <c r="K10">
-        <v>1.044988921116181</v>
+        <v>1.043392371713472</v>
       </c>
       <c r="L10">
-        <v>1.009714112485971</v>
+        <v>1.01081034555865</v>
       </c>
       <c r="M10">
-        <v>1.03225855554432</v>
+        <v>1.032292172443817</v>
       </c>
       <c r="N10">
-        <v>1.002434488111053</v>
+        <v>1.006658672170401</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034154554230428</v>
+        <v>1.0341811583128</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.042917664300194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.041801127728309</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023931576139228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9650208424027301</v>
+        <v>0.96720933157106</v>
       </c>
       <c r="D11">
-        <v>1.029545290944425</v>
+        <v>1.028179250768726</v>
       </c>
       <c r="E11">
-        <v>0.992501338090661</v>
+        <v>0.9939497873432719</v>
       </c>
       <c r="F11">
-        <v>1.016172224751726</v>
+        <v>1.016513983305367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.053375386948542</v>
+        <v>1.052684294897509</v>
       </c>
       <c r="J11">
-        <v>0.9959248394183216</v>
+        <v>0.9980128577803902</v>
       </c>
       <c r="K11">
-        <v>1.043930736806482</v>
+        <v>1.042588619717304</v>
       </c>
       <c r="L11">
-        <v>1.007566067379607</v>
+        <v>1.008986710935292</v>
       </c>
       <c r="M11">
-        <v>1.030795467841142</v>
+        <v>1.031131048018086</v>
       </c>
       <c r="N11">
-        <v>1.001728113779412</v>
+        <v>1.006424674236289</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033435442050078</v>
+        <v>1.033700882043104</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.042202016469727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041268597775368</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023759670481771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9637980200209709</v>
+        <v>0.9661435031120987</v>
       </c>
       <c r="D12">
-        <v>1.029063580705491</v>
+        <v>1.02780263705797</v>
       </c>
       <c r="E12">
-        <v>0.9916728562583026</v>
+        <v>0.9932666193557346</v>
       </c>
       <c r="F12">
-        <v>1.015658914469658</v>
+        <v>1.016145737876145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.053232667452533</v>
+        <v>1.052594884554686</v>
       </c>
       <c r="J12">
-        <v>0.9952176630386677</v>
+        <v>0.9974532110644806</v>
       </c>
       <c r="K12">
-        <v>1.043654375859506</v>
+        <v>1.042415887237579</v>
       </c>
       <c r="L12">
-        <v>1.006961349187761</v>
+        <v>1.008523967349064</v>
       </c>
       <c r="M12">
-        <v>1.030492140095865</v>
+        <v>1.030970013236092</v>
       </c>
       <c r="N12">
-        <v>1.001601028170003</v>
+        <v>1.006460745718055</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033523691928757</v>
+        <v>1.033901554672946</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042006623821295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041146474742175</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023713771875688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9645322509502892</v>
+        <v>0.9668398997370828</v>
       </c>
       <c r="D13">
-        <v>1.029437717878079</v>
+        <v>1.028162660470862</v>
       </c>
       <c r="E13">
-        <v>0.9922913814953886</v>
+        <v>0.9938669276820525</v>
       </c>
       <c r="F13">
-        <v>1.016302632586574</v>
+        <v>1.01679860286944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.053400342951714</v>
+        <v>1.05275538357865</v>
       </c>
       <c r="J13">
-        <v>0.9958189650079469</v>
+        <v>0.998019080891513</v>
       </c>
       <c r="K13">
-        <v>1.043979647680974</v>
+        <v>1.042727200006073</v>
       </c>
       <c r="L13">
-        <v>1.007523235814146</v>
+        <v>1.009068146137359</v>
       </c>
       <c r="M13">
-        <v>1.031081017315435</v>
+        <v>1.03156791475744</v>
       </c>
       <c r="N13">
-        <v>1.001921719430914</v>
+        <v>1.006669263107068</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034267264980099</v>
+        <v>1.03465216577963</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.042234128660083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.041363863417393</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023767505889542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9659264833491009</v>
+        <v>0.9681223607021965</v>
       </c>
       <c r="D14">
-        <v>1.030085309618542</v>
+        <v>1.028748484438657</v>
       </c>
       <c r="E14">
-        <v>0.9933737278957117</v>
+        <v>0.9948656766201448</v>
       </c>
       <c r="F14">
-        <v>1.017272162182757</v>
+        <v>1.017715595048501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.0536569753803</v>
+        <v>1.052980659080846</v>
       </c>
       <c r="J14">
-        <v>0.9968266173796868</v>
+        <v>0.998921811658923</v>
       </c>
       <c r="K14">
-        <v>1.044477576277119</v>
+        <v>1.043164160310284</v>
       </c>
       <c r="L14">
-        <v>1.008438831823049</v>
+        <v>1.009902169611973</v>
       </c>
       <c r="M14">
-        <v>1.031892091402186</v>
+        <v>1.032327520916821</v>
       </c>
       <c r="N14">
-        <v>1.002346885693863</v>
+        <v>1.006894430840084</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035082376673083</v>
+        <v>1.035426544478773</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.042587585114299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.041674347191469</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023849843993233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9666962397110593</v>
+        <v>0.9688235616075094</v>
       </c>
       <c r="D15">
-        <v>1.030434719092298</v>
+        <v>1.029057640608423</v>
       </c>
       <c r="E15">
-        <v>0.9939592712163402</v>
+        <v>0.9953963695724485</v>
       </c>
       <c r="F15">
-        <v>1.017769843522528</v>
+        <v>1.018172019588114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053789804002443</v>
+        <v>1.053093052638909</v>
       </c>
       <c r="J15">
-        <v>0.9973633304393206</v>
+        <v>0.9993940588729316</v>
       </c>
       <c r="K15">
-        <v>1.044735761549503</v>
+        <v>1.043382613207803</v>
       </c>
       <c r="L15">
-        <v>1.008923446322611</v>
+        <v>1.010333215290127</v>
       </c>
       <c r="M15">
-        <v>1.032294139930018</v>
+        <v>1.032689115622229</v>
       </c>
       <c r="N15">
-        <v>1.002551170512063</v>
+        <v>1.006992905691646</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035437812875176</v>
+        <v>1.035749997363024</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042775940539967</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.041835180150375</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023893953866409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.970859078237595</v>
+        <v>0.9726000062649444</v>
       </c>
       <c r="D16">
-        <v>1.032291392625177</v>
+        <v>1.030666170427856</v>
       </c>
       <c r="E16">
-        <v>0.9970972530699392</v>
+        <v>0.9982083894407703</v>
       </c>
       <c r="F16">
-        <v>1.020340983786872</v>
+        <v>1.020468177034436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.054470163545957</v>
+        <v>1.053647380123078</v>
       </c>
       <c r="J16">
-        <v>1.000197898639479</v>
+        <v>1.001864128831288</v>
       </c>
       <c r="K16">
-        <v>1.046066065955192</v>
+        <v>1.04446784681902</v>
       </c>
       <c r="L16">
-        <v>1.011482283536473</v>
+        <v>1.012573294380445</v>
       </c>
       <c r="M16">
-        <v>1.034316808709746</v>
+        <v>1.034441828972796</v>
       </c>
       <c r="N16">
-        <v>1.003522167869279</v>
+        <v>1.007447592752256</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036997693725886</v>
+        <v>1.037096511294507</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.043719627195946</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042605893967649</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024134818313662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9733158251773258</v>
+        <v>0.9748438061494193</v>
       </c>
       <c r="D17">
-        <v>1.033373589095921</v>
+        <v>1.03159682638864</v>
       </c>
       <c r="E17">
-        <v>0.9989338444595832</v>
+        <v>0.9998590444920452</v>
       </c>
       <c r="F17">
-        <v>1.021797895287656</v>
+        <v>1.021756117432977</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054852366753074</v>
+        <v>1.053952535019558</v>
       </c>
       <c r="J17">
-        <v>1.001839517828113</v>
+        <v>1.003304245117631</v>
       </c>
       <c r="K17">
-        <v>1.046820712220934</v>
+        <v>1.045072637025684</v>
       </c>
       <c r="L17">
-        <v>1.012960593103763</v>
+        <v>1.013869545620411</v>
       </c>
       <c r="M17">
-        <v>1.035434226326528</v>
+        <v>1.035393141338315</v>
       </c>
       <c r="N17">
-        <v>1.004042723354788</v>
+        <v>1.007712193360803</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037751562307961</v>
+        <v>1.037719084956426</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044255737895527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043036300445426</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024275224519426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9745341449063417</v>
+        <v>0.9759499054961354</v>
       </c>
       <c r="D18">
-        <v>1.033878500797294</v>
+        <v>1.032010738396348</v>
       </c>
       <c r="E18">
-        <v>0.9998069832053623</v>
+        <v>1.000625318794132</v>
       </c>
       <c r="F18">
-        <v>1.022406264834544</v>
+        <v>1.022252822901553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.055010283032831</v>
+        <v>1.054064166335486</v>
       </c>
       <c r="J18">
-        <v>1.002594985478071</v>
+        <v>1.003953330714773</v>
       </c>
       <c r="K18">
-        <v>1.047136994015895</v>
+        <v>1.045298890585629</v>
       </c>
       <c r="L18">
-        <v>1.013629049202506</v>
+        <v>1.014433267143999</v>
       </c>
       <c r="M18">
-        <v>1.035849129167799</v>
+        <v>1.035698189246027</v>
       </c>
       <c r="N18">
-        <v>1.004215340761435</v>
+        <v>1.007785674301483</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037841237033901</v>
+        <v>1.037721895204247</v>
       </c>
       <c r="Q18">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R18">
-        <v>1.044467842102771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043183613869138</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024335994142802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9746062497442965</v>
+        <v>0.9759982580226185</v>
       </c>
       <c r="D19">
-        <v>1.033850054156139</v>
+        <v>1.031952995321441</v>
       </c>
       <c r="E19">
-        <v>0.9997748023851553</v>
+        <v>1.00055933975222</v>
       </c>
       <c r="F19">
-        <v>1.022210648702553</v>
+        <v>1.022004096833739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054962318564056</v>
+        <v>1.054001299957279</v>
       </c>
       <c r="J19">
-        <v>1.002523693716714</v>
+        <v>1.003859592183579</v>
       </c>
       <c r="K19">
-        <v>1.047047445763584</v>
+        <v>1.045180354102485</v>
       </c>
       <c r="L19">
-        <v>1.013532859857646</v>
+        <v>1.014303933613282</v>
       </c>
       <c r="M19">
-        <v>1.035594154091346</v>
+        <v>1.035390954143864</v>
       </c>
       <c r="N19">
-        <v>1.004077900625825</v>
+        <v>1.007668446267306</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037313175291515</v>
+        <v>1.037152460820608</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044410855915546</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043106759611425</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024316970599609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9714940311330855</v>
+        <v>0.9730947593580627</v>
       </c>
       <c r="D20">
-        <v>1.032342479318866</v>
+        <v>1.030578191419716</v>
       </c>
       <c r="E20">
-        <v>0.9972460188344914</v>
+        <v>0.9981874746722633</v>
       </c>
       <c r="F20">
-        <v>1.019833142434603</v>
+        <v>1.019723276726631</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.054348080139163</v>
+        <v>1.053454633238363</v>
       </c>
       <c r="J20">
-        <v>1.000169826289881</v>
+        <v>1.001703733365044</v>
       </c>
       <c r="K20">
-        <v>1.045839505293861</v>
+        <v>1.044103857185111</v>
       </c>
       <c r="L20">
-        <v>1.011337467156093</v>
+        <v>1.012262270202952</v>
       </c>
       <c r="M20">
-        <v>1.03353599000276</v>
+        <v>1.033427960789386</v>
       </c>
       <c r="N20">
-        <v>1.003077109798311</v>
+        <v>1.00700875799911</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035154910338174</v>
+        <v>1.0350694160892</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043560694448238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042349925476144</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024083095040401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9637314379781354</v>
+        <v>0.966070870421193</v>
       </c>
       <c r="D21">
-        <v>1.028865879228104</v>
+        <v>1.027560661418533</v>
       </c>
       <c r="E21">
-        <v>0.9913628428496631</v>
+        <v>0.9929240176489037</v>
       </c>
       <c r="F21">
-        <v>1.014961956276656</v>
+        <v>1.015354359493153</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.053061019708688</v>
+        <v>1.052400754808498</v>
       </c>
       <c r="J21">
-        <v>0.9948278889928552</v>
+        <v>0.9970589872485017</v>
       </c>
       <c r="K21">
-        <v>1.043320265695812</v>
+        <v>1.042038047683751</v>
       </c>
       <c r="L21">
-        <v>1.006509717458665</v>
+        <v>1.008040698279276</v>
       </c>
       <c r="M21">
-        <v>1.029665307856145</v>
+        <v>1.030050562982111</v>
       </c>
       <c r="N21">
-        <v>1.001175331504452</v>
+        <v>1.006143547231801</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032050441450746</v>
+        <v>1.032355348615897</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041782735148679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040892884731764</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023639044618761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.95874161253489</v>
+        <v>0.9615632040833402</v>
       </c>
       <c r="D22">
-        <v>1.026644357679986</v>
+        <v>1.025638771295312</v>
       </c>
       <c r="E22">
-        <v>0.9876032565904819</v>
+        <v>0.989570898683016</v>
       </c>
       <c r="F22">
-        <v>1.011871078477423</v>
+        <v>1.012594962611057</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052224707754042</v>
+        <v>1.051716353689214</v>
       </c>
       <c r="J22">
-        <v>0.9914059027662239</v>
+        <v>0.994088294244563</v>
       </c>
       <c r="K22">
-        <v>1.041705840281175</v>
+        <v>1.040718873496116</v>
       </c>
       <c r="L22">
-        <v>1.003424361548754</v>
+        <v>1.005351828411451</v>
       </c>
       <c r="M22">
-        <v>1.027210978972706</v>
+        <v>1.027920972967374</v>
       </c>
       <c r="N22">
-        <v>0.9999608603765129</v>
+        <v>1.005587481359051</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.030107978865599</v>
+        <v>1.030669899538681</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040627907878472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039945508533447</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023352596440712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.961398852420126</v>
+        <v>0.9639290823380899</v>
       </c>
       <c r="D23">
-        <v>1.027824224282885</v>
+        <v>1.026646920551742</v>
       </c>
       <c r="E23">
-        <v>0.9896050152454569</v>
+        <v>0.9913256875824999</v>
       </c>
       <c r="F23">
-        <v>1.01352055800566</v>
+        <v>1.01404472761066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052670018513928</v>
+        <v>1.052074647313348</v>
       </c>
       <c r="J23">
-        <v>0.9932273852447593</v>
+        <v>0.9956368816061207</v>
       </c>
       <c r="K23">
-        <v>1.042563389311409</v>
+        <v>1.041407324199826</v>
       </c>
       <c r="L23">
-        <v>1.005067590449459</v>
+        <v>1.006754118379724</v>
       </c>
       <c r="M23">
-        <v>1.028522123888542</v>
+        <v>1.029036507077866</v>
       </c>
       <c r="N23">
-        <v>1.000603677359478</v>
+        <v>1.005828333052579</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.031145676630708</v>
+        <v>1.031552781692453</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041224671174598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040421767878857</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023502552124642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9715494084807246</v>
+        <v>0.9731453635739054</v>
       </c>
       <c r="D24">
-        <v>1.032353421221519</v>
+        <v>1.030581390732894</v>
       </c>
       <c r="E24">
-        <v>0.9972746383593309</v>
+        <v>0.998210272438073</v>
       </c>
       <c r="F24">
-        <v>1.019839263699894</v>
+        <v>1.019719614893094</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.054345527555906</v>
+        <v>1.053448145186549</v>
       </c>
       <c r="J24">
-        <v>1.000188403751497</v>
+        <v>1.001717841562604</v>
       </c>
       <c r="K24">
-        <v>1.045835236963482</v>
+        <v>1.044091934692308</v>
       </c>
       <c r="L24">
-        <v>1.011349784040003</v>
+        <v>1.012268890764733</v>
       </c>
       <c r="M24">
-        <v>1.033526712475747</v>
+        <v>1.033409061125757</v>
       </c>
       <c r="N24">
-        <v>1.00306510179299</v>
+        <v>1.006995792981622</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03510651403404</v>
+        <v>1.035013400169039</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043530551258629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042311687675209</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024079808598423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827414915421858</v>
+        <v>0.983757742164302</v>
       </c>
       <c r="D25">
-        <v>1.037375347322924</v>
+        <v>1.035077607227132</v>
       </c>
       <c r="E25">
-        <v>1.005774624238995</v>
+        <v>1.006226965470069</v>
       </c>
       <c r="F25">
-        <v>1.026849909183138</v>
+        <v>1.026288813040376</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.056131548300628</v>
+        <v>1.05496600600914</v>
       </c>
       <c r="J25">
-        <v>1.007863967402517</v>
+        <v>1.008844365483818</v>
       </c>
       <c r="K25">
-        <v>1.049419898190275</v>
+        <v>1.047154742432012</v>
       </c>
       <c r="L25">
-        <v>1.018283953155765</v>
+        <v>1.018729378819604</v>
       </c>
       <c r="M25">
-        <v>1.039045237773135</v>
+        <v>1.038492289469601</v>
       </c>
       <c r="N25">
-        <v>1.005775858843477</v>
+        <v>1.008957586544014</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039474076381316</v>
+        <v>1.039036454115721</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046062204432293</v>
+        <v>1.044474060911607</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024726817954224</v>
       </c>
     </row>
   </sheetData>
